--- a/draft-iSR.xlsx
+++ b/draft-iSR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samiraranjbar/drive/Methanogens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB91C883-7095-944B-AE91-0B3621B85327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B837C3E8-9458-1A44-A29E-B7411E9FE72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="19120" windowHeight="21900" xr2:uid="{A7833302-CA10-7F4C-87BF-A5FECCDDFBA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{A7833302-CA10-7F4C-87BF-A5FECCDDFBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Reacrions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="1101">
   <si>
     <t>EX_12dca(e)</t>
   </si>
@@ -2331,15 +2331,9 @@
     <t>Clt</t>
   </si>
   <si>
-    <t>chlorideion transport out via diffusion</t>
-  </si>
-  <si>
     <t xml:space="preserve">cl[e]  &lt;=&gt; cl[c] </t>
   </si>
   <si>
-    <t>Mbar_A1823 or Mbar_A2221</t>
-  </si>
-  <si>
     <t>Mbar_A1823 Mbar_A2221</t>
   </si>
   <si>
@@ -2382,9 +2376,6 @@
     <t xml:space="preserve">cobalt2[c]  &lt;=&gt; cobalt2[e] </t>
   </si>
   <si>
-    <t>Mbar_A2983 or Mbar_A2809 or Mbar_A2810</t>
-  </si>
-  <si>
     <t>Mbar_A2809 Mbar_A2810 Mbar_A2983</t>
   </si>
   <si>
@@ -2499,12 +2490,6 @@
     <t xml:space="preserve">atp[c] + fe2[e] + h2o[c]  -&gt; adp[c] + fe2[c] + h[c] + pi[c] </t>
   </si>
   <si>
-    <t>( Mbar_A0297 or Mbar_A0509 or Mbar_A1172 ) and ( Mbar_A0510 or Mbar_A1173 ) and ( Mbar_A0513 or Mbar_A0998 or Mbar_A1174 or Mbar_A1286 )</t>
-  </si>
-  <si>
-    <t>Mbar_A0297 Mbar_A0509 Mbar_A0510 Mbar_A0513 Mbar_A0998 Mbar_A1172 Mbar_A1173 Mbar_A1174 Mbar_A1286</t>
-  </si>
-  <si>
     <t>FeoB2, FeoB1</t>
   </si>
   <si>
@@ -2793,9 +2778,6 @@
     <t xml:space="preserve">mg2[c]  &lt;=&gt; mg2[e] </t>
   </si>
   <si>
-    <t>MgtE, CorA1</t>
-  </si>
-  <si>
     <t>MMAt</t>
   </si>
   <si>
@@ -2814,9 +2796,6 @@
     <t xml:space="preserve">atp[c] + h2o[c] + mn2[e]  -&gt; adp[c] + h[c] + mn2[c] + pi[c] </t>
   </si>
   <si>
-    <t>Mbar_A0993 and Mbar_A0996 and Mbar_A0995</t>
-  </si>
-  <si>
     <t>Mbar_A0993 Mbar_A0995 Mbar_A0996</t>
   </si>
   <si>
@@ -2946,9 +2925,6 @@
     <t>NIt5</t>
   </si>
   <si>
-    <t xml:space="preserve">nickel transport inout via permease no H </t>
-  </si>
-  <si>
     <t xml:space="preserve">ni2[c]  &lt;=&gt; ni2[e] </t>
   </si>
   <si>
@@ -3388,6 +3364,36 @@
   </si>
   <si>
     <t>Copper2 transport via ABC system</t>
+  </si>
+  <si>
+    <t>MCON_0306</t>
+  </si>
+  <si>
+    <t>MCON_2831</t>
+  </si>
+  <si>
+    <t>CorA</t>
+  </si>
+  <si>
+    <t>nickel transport</t>
+  </si>
+  <si>
+    <t>MCON_2496 MCON_2497 MCON_2494 MCON_2493</t>
+  </si>
+  <si>
+    <t>MCON_2130</t>
+  </si>
+  <si>
+    <t>MCON_0671 or  MCON_0949 or  MCON_1114) and (MCON_0366 or  MCON_0480 or MCON_0670 or MCON_0745 or MCON_0950 or MCON_2219) and (MCON_0369)</t>
+  </si>
+  <si>
+    <t>(MCON_0671 or  MCON_0949 or  MCON_1114) and (MCON_0366 or  MCON_0480 or MCON_0670 or MCON_0745 or MCON_0950 or MCON_2219) and (MCON_0369)</t>
+  </si>
+  <si>
+    <t>MCON_2933</t>
+  </si>
+  <si>
+    <t>chloride ion transport out via diffusion</t>
   </si>
 </sst>
 </file>
@@ -3593,7 +3599,95 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3958,10 +4052,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FBAA97-CD12-E746-8C45-AB28DF654245}">
   <dimension ref="A1:R254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D179" sqref="D179"/>
+      <selection pane="bottomLeft" activeCell="A188" sqref="A188:XFD254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9908,7 +10002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>519</v>
       </c>
@@ -9949,7 +10043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>519</v>
       </c>
@@ -9990,7 +10084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>519</v>
       </c>
@@ -10031,7 +10125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>519</v>
       </c>
@@ -10072,7 +10166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>519</v>
       </c>
@@ -10113,7 +10207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>519</v>
       </c>
@@ -10154,7 +10248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>519</v>
       </c>
@@ -10195,7 +10289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>519</v>
       </c>
@@ -10236,7 +10330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>519</v>
       </c>
@@ -10277,7 +10371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>519</v>
       </c>
@@ -10318,280 +10412,279 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>284</v>
-      </c>
-      <c r="B156">
-        <v>361</v>
-      </c>
-      <c r="C156" t="s">
-        <v>799</v>
-      </c>
-      <c r="D156" t="s">
-        <v>800</v>
-      </c>
-      <c r="E156" t="s">
-        <v>801</v>
-      </c>
-      <c r="F156" t="s">
-        <v>802</v>
-      </c>
-      <c r="G156" t="s">
-        <v>803</v>
-      </c>
-      <c r="H156" t="s">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A156" s="8">
+        <v>757</v>
+      </c>
+      <c r="B156" s="8">
+        <v>670</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="H156" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I156" t="s">
-        <v>804</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <v>1000</v>
-      </c>
-      <c r="N156">
-        <v>0</v>
-      </c>
-      <c r="O156">
+      <c r="I156" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K156" s="8">
+        <v>0</v>
+      </c>
+      <c r="L156" s="8">
+        <v>0</v>
+      </c>
+      <c r="M156" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N156" s="8">
+        <v>0</v>
+      </c>
+      <c r="O156" s="8">
         <v>4</v>
       </c>
-      <c r="P156" t="s">
+      <c r="P156" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>579</v>
-      </c>
-      <c r="B157">
-        <v>752</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F157" t="s">
-        <v>913</v>
-      </c>
-      <c r="G157" t="s">
-        <v>914</v>
-      </c>
-      <c r="H157" t="s">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A157" s="8">
+        <v>96</v>
+      </c>
+      <c r="B157" s="8">
+        <v>139</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="H157" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I157" t="s">
-        <v>915</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <v>1000</v>
-      </c>
-      <c r="N157">
-        <v>0</v>
-      </c>
-      <c r="O157">
+      <c r="I157" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8">
+        <v>1</v>
+      </c>
+      <c r="L157" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="M157" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N157" s="8">
+        <v>0</v>
+      </c>
+      <c r="O157" s="8">
         <v>4</v>
       </c>
-      <c r="P157" t="s">
+      <c r="P157" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>610</v>
-      </c>
-      <c r="B158">
-        <v>787</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E158" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F158" t="s">
-        <v>913</v>
-      </c>
-      <c r="G158" t="s">
-        <v>914</v>
-      </c>
-      <c r="H158" t="s">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A158" s="8">
+        <v>98</v>
+      </c>
+      <c r="B158" s="8">
+        <v>140</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="H158" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I158" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="M158">
-        <v>1000</v>
-      </c>
-      <c r="N158">
-        <v>0</v>
-      </c>
-      <c r="O158">
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8">
+        <v>0</v>
+      </c>
+      <c r="L158" s="8">
+        <v>0</v>
+      </c>
+      <c r="M158" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N158" s="8">
+        <v>0</v>
+      </c>
+      <c r="O158" s="8">
         <v>4</v>
       </c>
-      <c r="P158" t="s">
+      <c r="P158" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>757</v>
-      </c>
-      <c r="B159">
-        <v>670</v>
-      </c>
-      <c r="C159" t="s">
-        <v>971</v>
-      </c>
-      <c r="D159" t="s">
-        <v>972</v>
-      </c>
-      <c r="E159" t="s">
-        <v>973</v>
-      </c>
-      <c r="F159" t="s">
-        <v>974</v>
-      </c>
-      <c r="G159" t="s">
-        <v>974</v>
-      </c>
-      <c r="H159" t="s">
+    <row r="159" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="8">
+        <v>100</v>
+      </c>
+      <c r="B159" s="8">
+        <v>142</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="H159" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I159" t="s">
-        <v>969</v>
-      </c>
-      <c r="J159" t="s">
-        <v>391</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="M159">
+      <c r="K159" s="8">
+        <v>0</v>
+      </c>
+      <c r="L159" s="8">
+        <v>0</v>
+      </c>
+      <c r="M159" s="8">
         <v>1000</v>
       </c>
       <c r="N159" s="8">
         <v>0</v>
       </c>
       <c r="O159" s="8">
+        <v>5</v>
+      </c>
+      <c r="P159" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q159"/>
+      <c r="R159"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A160" s="8">
+        <v>99</v>
+      </c>
+      <c r="B160" s="8">
+        <v>143</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8">
+        <v>0</v>
+      </c>
+      <c r="L160" s="8">
+        <v>0</v>
+      </c>
+      <c r="M160" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N160" s="8">
+        <v>0</v>
+      </c>
+      <c r="O160" s="8">
         <v>4</v>
       </c>
-      <c r="P159" s="8" t="s">
+      <c r="P160" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>432</v>
-      </c>
-      <c r="B160">
-        <v>560</v>
-      </c>
-      <c r="C160" t="s">
-        <v>904</v>
-      </c>
-      <c r="D160" t="s">
-        <v>905</v>
-      </c>
-      <c r="E160" t="s">
-        <v>906</v>
-      </c>
-      <c r="F160" t="s">
-        <v>907</v>
-      </c>
-      <c r="G160" t="s">
-        <v>908</v>
-      </c>
-      <c r="H160" t="s">
+      <c r="Q160" s="8"/>
+      <c r="R160" s="8"/>
+    </row>
+    <row r="161" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="8">
+        <v>574</v>
+      </c>
+      <c r="B161" s="8">
+        <v>747</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="H161" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I160" t="s">
-        <v>909</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <v>1000</v>
-      </c>
-      <c r="N160">
-        <v>0</v>
-      </c>
-      <c r="O160">
-        <v>38</v>
-      </c>
-      <c r="P160" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>96</v>
-      </c>
-      <c r="B161">
-        <v>139</v>
-      </c>
-      <c r="C161" t="s">
-        <v>706</v>
-      </c>
-      <c r="D161" t="s">
-        <v>707</v>
-      </c>
-      <c r="E161" t="s">
-        <v>708</v>
-      </c>
-      <c r="F161" t="s">
-        <v>709</v>
-      </c>
-      <c r="G161" t="s">
-        <v>710</v>
-      </c>
-      <c r="H161" t="s">
-        <v>663</v>
-      </c>
-      <c r="I161" t="s">
-        <v>711</v>
-      </c>
-      <c r="J161"/>
-      <c r="K161">
-        <v>1</v>
-      </c>
-      <c r="L161">
-        <v>-1000</v>
-      </c>
-      <c r="M161">
+      <c r="I161" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="K161" s="8">
+        <v>0</v>
+      </c>
+      <c r="L161" s="8">
+        <v>0</v>
+      </c>
+      <c r="M161" s="8">
         <v>1000</v>
       </c>
       <c r="N161" s="8">
@@ -10603,131 +10696,142 @@
       <c r="P161" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>98</v>
-      </c>
-      <c r="B162">
-        <v>140</v>
-      </c>
-      <c r="C162" t="s">
-        <v>712</v>
-      </c>
-      <c r="D162" t="s">
-        <v>713</v>
-      </c>
-      <c r="E162" t="s">
-        <v>714</v>
-      </c>
-      <c r="F162" t="s">
-        <v>715</v>
-      </c>
-      <c r="G162" t="s">
-        <v>716</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="Q161"/>
+      <c r="R161"/>
+    </row>
+    <row r="162" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="8">
+        <v>393</v>
+      </c>
+      <c r="B162" s="8">
+        <v>493</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="H162" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="M162">
-        <v>1000</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-      <c r="O162">
+      <c r="I162" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="K162" s="8">
+        <v>1</v>
+      </c>
+      <c r="L162" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="M162" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N162" s="8">
+        <v>0</v>
+      </c>
+      <c r="O162" s="8">
         <v>4</v>
       </c>
-      <c r="P162" t="s">
+      <c r="P162" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>100</v>
-      </c>
-      <c r="B163">
-        <v>142</v>
-      </c>
-      <c r="C163" t="s">
-        <v>717</v>
-      </c>
-      <c r="D163" t="s">
-        <v>718</v>
-      </c>
-      <c r="E163" t="s">
-        <v>719</v>
-      </c>
-      <c r="F163" t="s">
-        <v>715</v>
-      </c>
-      <c r="G163" t="s">
-        <v>716</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="Q162"/>
+      <c r="R162"/>
+    </row>
+    <row r="163" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="8">
+        <v>411</v>
+      </c>
+      <c r="B163" s="8">
+        <v>517</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="H163" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I163"/>
-      <c r="J163"/>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="M163">
+      <c r="I163" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="K163" s="8">
+        <v>1</v>
+      </c>
+      <c r="L163" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="M163" s="8">
         <v>1000</v>
       </c>
       <c r="N163" s="8">
         <v>0</v>
       </c>
       <c r="O163" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P163" s="8" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>99</v>
-      </c>
-      <c r="B164">
-        <v>143</v>
-      </c>
-      <c r="C164" t="s">
-        <v>720</v>
-      </c>
-      <c r="D164" t="s">
-        <v>721</v>
-      </c>
-      <c r="E164" t="s">
-        <v>722</v>
-      </c>
-      <c r="F164" t="s">
-        <v>715</v>
-      </c>
-      <c r="G164" t="s">
-        <v>716</v>
-      </c>
-      <c r="H164" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q163"/>
+      <c r="R163"/>
+    </row>
+    <row r="164" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="8">
+        <v>629</v>
+      </c>
+      <c r="B164" s="8">
+        <v>807</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="H164" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I164"/>
-      <c r="J164"/>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164">
+      <c r="I164" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="K164" s="8">
+        <v>1</v>
+      </c>
+      <c r="L164" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="M164" s="8">
         <v>1000</v>
       </c>
       <c r="N164" s="8">
@@ -10739,43 +10843,44 @@
       <c r="P164" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>335</v>
-      </c>
-      <c r="B165">
-        <v>424</v>
-      </c>
-      <c r="C165" t="s">
-        <v>838</v>
-      </c>
-      <c r="D165" t="s">
-        <v>839</v>
-      </c>
-      <c r="E165" t="s">
-        <v>840</v>
-      </c>
-      <c r="F165" t="s">
-        <v>841</v>
-      </c>
-      <c r="G165" t="s">
-        <v>842</v>
-      </c>
-      <c r="H165" t="s">
+      <c r="Q164"/>
+      <c r="R164"/>
+    </row>
+    <row r="165" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="8">
+        <v>57</v>
+      </c>
+      <c r="B165" s="8">
+        <v>80</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="H165" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I165" t="s">
-        <v>843</v>
-      </c>
-      <c r="J165"/>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="M165">
+      <c r="I165" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="K165" s="8">
+        <v>1</v>
+      </c>
+      <c r="L165" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="M165" s="8">
         <v>1000</v>
       </c>
       <c r="N165" s="8">
@@ -10787,91 +10892,96 @@
       <c r="P165" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>574</v>
-      </c>
-      <c r="B166">
-        <v>747</v>
-      </c>
-      <c r="C166" t="s">
-        <v>995</v>
-      </c>
-      <c r="D166" t="s">
-        <v>996</v>
-      </c>
-      <c r="E166" t="s">
-        <v>997</v>
-      </c>
-      <c r="F166" t="s">
-        <v>998</v>
-      </c>
-      <c r="G166" t="s">
-        <v>998</v>
-      </c>
-      <c r="H166" t="s">
+      <c r="Q165"/>
+      <c r="R165"/>
+    </row>
+    <row r="166" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="8">
+        <v>338</v>
+      </c>
+      <c r="B166" s="8">
+        <v>427</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="H166" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I166" t="s">
-        <v>999</v>
-      </c>
-      <c r="J166"/>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-      <c r="M166">
+      <c r="I166" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="K166" s="8">
+        <v>1</v>
+      </c>
+      <c r="L166" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="M166" s="8">
         <v>1000</v>
       </c>
       <c r="N166" s="8">
         <v>0</v>
       </c>
       <c r="O166" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P166" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>393</v>
-      </c>
-      <c r="B167">
-        <v>493</v>
-      </c>
-      <c r="C167" t="s">
-        <v>866</v>
-      </c>
-      <c r="D167" t="s">
-        <v>867</v>
-      </c>
-      <c r="E167" t="s">
-        <v>868</v>
-      </c>
-      <c r="F167" t="s">
-        <v>869</v>
-      </c>
-      <c r="G167" t="s">
-        <v>870</v>
-      </c>
-      <c r="H167" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q166"/>
+      <c r="R166"/>
+    </row>
+    <row r="167" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="8">
+        <v>86</v>
+      </c>
+      <c r="B167" s="8">
+        <v>125</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="H167" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I167" t="s">
-        <v>871</v>
-      </c>
-      <c r="J167"/>
-      <c r="K167">
-        <v>1</v>
-      </c>
-      <c r="L167">
-        <v>-1000</v>
-      </c>
-      <c r="M167">
+      <c r="I167" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="K167" s="8">
+        <v>0</v>
+      </c>
+      <c r="L167" s="8">
+        <v>0</v>
+      </c>
+      <c r="M167" s="8">
         <v>1000</v>
       </c>
       <c r="N167" s="8">
@@ -10883,43 +10993,44 @@
       <c r="P167" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>411</v>
-      </c>
-      <c r="B168">
-        <v>517</v>
-      </c>
-      <c r="C168" t="s">
-        <v>881</v>
-      </c>
-      <c r="D168" t="s">
-        <v>882</v>
-      </c>
-      <c r="E168" t="s">
-        <v>883</v>
-      </c>
-      <c r="F168" t="s">
-        <v>869</v>
-      </c>
-      <c r="G168" t="s">
-        <v>870</v>
-      </c>
-      <c r="H168" t="s">
+      <c r="Q167"/>
+      <c r="R167"/>
+    </row>
+    <row r="168" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="8">
+        <v>791</v>
+      </c>
+      <c r="B168" s="8">
+        <v>783</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H168" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I168" t="s">
-        <v>871</v>
-      </c>
-      <c r="J168"/>
-      <c r="K168">
-        <v>1</v>
-      </c>
-      <c r="L168">
+      <c r="I168" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K168" s="8">
+        <v>1</v>
+      </c>
+      <c r="L168" s="8">
         <v>-1000</v>
       </c>
-      <c r="M168">
+      <c r="M168" s="8">
         <v>1000</v>
       </c>
       <c r="N168" s="8">
@@ -10931,90 +11042,93 @@
       <c r="P168" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>629</v>
-      </c>
-      <c r="B169">
-        <v>807</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D169" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E169" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F169" t="s">
-        <v>869</v>
-      </c>
-      <c r="G169" t="s">
-        <v>870</v>
-      </c>
-      <c r="H169" t="s">
+      <c r="Q168"/>
+      <c r="R168"/>
+    </row>
+    <row r="169" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="8">
+        <v>416</v>
+      </c>
+      <c r="B169" s="8">
+        <v>523</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="H169" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I169" t="s">
-        <v>871</v>
-      </c>
-      <c r="K169">
-        <v>1</v>
-      </c>
-      <c r="L169">
+      <c r="I169" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="K169" s="8">
+        <v>1</v>
+      </c>
+      <c r="L169" s="8">
         <v>-1000</v>
       </c>
-      <c r="M169">
-        <v>1000</v>
-      </c>
-      <c r="N169">
-        <v>0</v>
-      </c>
-      <c r="O169">
+      <c r="M169" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N169" s="8">
+        <v>0</v>
+      </c>
+      <c r="O169" s="8">
         <v>4</v>
       </c>
-      <c r="P169" t="s">
+      <c r="P169" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>57</v>
-      </c>
-      <c r="B170">
-        <v>80</v>
-      </c>
-      <c r="C170" t="s">
-        <v>680</v>
-      </c>
-      <c r="D170" t="s">
-        <v>681</v>
-      </c>
-      <c r="E170" t="s">
-        <v>682</v>
-      </c>
-      <c r="F170" t="s">
-        <v>683</v>
-      </c>
-      <c r="G170" t="s">
-        <v>683</v>
-      </c>
-      <c r="H170" t="s">
+      <c r="Q169"/>
+      <c r="R169"/>
+    </row>
+    <row r="170" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="8">
+        <v>447</v>
+      </c>
+      <c r="B170" s="8">
+        <v>581</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="H170" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I170" t="s">
-        <v>684</v>
-      </c>
-      <c r="J170"/>
-      <c r="K170">
-        <v>1</v>
-      </c>
-      <c r="L170">
+      <c r="I170" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="K170" s="8">
+        <v>1</v>
+      </c>
+      <c r="L170" s="8">
         <v>-1000</v>
       </c>
-      <c r="M170">
+      <c r="M170" s="8">
         <v>1000</v>
       </c>
       <c r="N170" s="8">
@@ -11026,191 +11140,197 @@
       <c r="P170" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>338</v>
-      </c>
-      <c r="B171">
-        <v>427</v>
-      </c>
-      <c r="C171" t="s">
-        <v>847</v>
-      </c>
-      <c r="D171" t="s">
-        <v>848</v>
-      </c>
-      <c r="E171" t="s">
-        <v>849</v>
-      </c>
-      <c r="F171" t="s">
-        <v>683</v>
-      </c>
-      <c r="G171" t="s">
-        <v>683</v>
-      </c>
-      <c r="H171" t="s">
+      <c r="Q170"/>
+      <c r="R170"/>
+    </row>
+    <row r="171" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="8">
+        <v>786</v>
+      </c>
+      <c r="B171" s="8">
+        <v>149</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="H171" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I171" t="s">
-        <v>684</v>
-      </c>
-      <c r="J171"/>
-      <c r="K171">
-        <v>1</v>
-      </c>
-      <c r="L171">
+      <c r="I171" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="K171" s="8">
+        <v>1</v>
+      </c>
+      <c r="L171" s="8">
         <v>-1000</v>
       </c>
-      <c r="M171">
+      <c r="M171" s="8">
         <v>1000</v>
       </c>
       <c r="N171" s="8">
         <v>0</v>
       </c>
       <c r="O171" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P171" s="8" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>86</v>
-      </c>
-      <c r="B172">
-        <v>125</v>
-      </c>
-      <c r="C172" t="s">
-        <v>685</v>
-      </c>
-      <c r="D172" t="s">
-        <v>686</v>
-      </c>
-      <c r="E172" t="s">
-        <v>687</v>
-      </c>
-      <c r="F172" t="s">
-        <v>688</v>
-      </c>
-      <c r="G172" t="s">
-        <v>689</v>
-      </c>
-      <c r="H172" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q171"/>
+      <c r="R171"/>
+    </row>
+    <row r="172" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="8">
+        <v>408</v>
+      </c>
+      <c r="B172" s="8">
+        <v>513</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="H172" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I172" t="s">
-        <v>690</v>
-      </c>
-      <c r="J172" t="s">
-        <v>691</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="M172">
-        <v>1000</v>
-      </c>
-      <c r="N172" s="8">
-        <v>0</v>
-      </c>
-      <c r="O172" s="8">
+      <c r="I172" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="K172" s="8">
+        <v>1</v>
+      </c>
+      <c r="L172" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="M172" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
         <v>4</v>
       </c>
-      <c r="P172" s="8" t="s">
+      <c r="P172" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>791</v>
-      </c>
-      <c r="B173">
-        <v>783</v>
-      </c>
-      <c r="C173" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D173" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F173" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G173" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H173" t="s">
+      <c r="Q172"/>
+      <c r="R172"/>
+    </row>
+    <row r="173" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="8">
+        <v>514</v>
+      </c>
+      <c r="B173" s="8">
+        <v>669</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="H173" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I173" t="s">
-        <v>1014</v>
-      </c>
-      <c r="J173"/>
-      <c r="K173">
-        <v>1</v>
-      </c>
-      <c r="L173">
-        <v>-1000</v>
-      </c>
-      <c r="M173">
-        <v>1000</v>
-      </c>
-      <c r="N173" s="8">
-        <v>0</v>
-      </c>
-      <c r="O173" s="8">
+      <c r="I173" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="J173" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="K173" s="8">
+        <v>0</v>
+      </c>
+      <c r="L173" s="8">
+        <v>0</v>
+      </c>
+      <c r="M173" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
         <v>4</v>
       </c>
-      <c r="P173" s="8" t="s">
+      <c r="P173" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>461</v>
-      </c>
-      <c r="B174">
-        <v>596</v>
-      </c>
-      <c r="C174" t="s">
-        <v>950</v>
-      </c>
-      <c r="D174" t="s">
-        <v>951</v>
-      </c>
-      <c r="E174" t="s">
-        <v>952</v>
-      </c>
-      <c r="F174" t="s">
-        <v>953</v>
-      </c>
-      <c r="G174" t="s">
-        <v>953</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="Q173"/>
+      <c r="R173"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A174" s="8">
+        <v>721</v>
+      </c>
+      <c r="B174" s="8">
+        <v>133</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="H174" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I174" t="s">
-        <v>954</v>
-      </c>
-      <c r="J174" t="s">
-        <v>766</v>
-      </c>
-      <c r="K174">
-        <v>1</v>
-      </c>
-      <c r="L174">
-        <v>-1000</v>
-      </c>
-      <c r="M174">
+      <c r="I174" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="J174" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K174" s="8">
+        <v>0</v>
+      </c>
+      <c r="L174" s="8">
+        <v>0</v>
+      </c>
+      <c r="M174" s="8">
         <v>1000</v>
       </c>
       <c r="N174">
@@ -11223,44 +11343,40 @@
         <v>245</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>127</v>
-      </c>
-      <c r="B175">
-        <v>178</v>
-      </c>
-      <c r="C175" t="s">
-        <v>760</v>
-      </c>
-      <c r="D175" t="s">
-        <v>761</v>
-      </c>
-      <c r="E175" t="s">
-        <v>762</v>
-      </c>
-      <c r="F175" t="s">
-        <v>763</v>
-      </c>
-      <c r="G175" t="s">
-        <v>764</v>
-      </c>
-      <c r="H175" t="s">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A175" s="8">
+        <v>93</v>
+      </c>
+      <c r="B175" s="8">
+        <v>134</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="H175" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I175" t="s">
-        <v>765</v>
-      </c>
-      <c r="J175" t="s">
-        <v>766</v>
-      </c>
-      <c r="K175">
-        <v>1</v>
-      </c>
-      <c r="L175">
-        <v>-1000</v>
-      </c>
-      <c r="M175">
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8">
+        <v>0</v>
+      </c>
+      <c r="L175" s="8">
+        <v>0</v>
+      </c>
+      <c r="M175" s="8">
         <v>1000</v>
       </c>
       <c r="N175">
@@ -11273,44 +11389,44 @@
         <v>245</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>430</v>
-      </c>
-      <c r="B176">
-        <v>554</v>
-      </c>
-      <c r="C176" t="s">
-        <v>897</v>
-      </c>
-      <c r="D176" t="s">
-        <v>898</v>
-      </c>
-      <c r="E176" t="s">
-        <v>899</v>
-      </c>
-      <c r="F176" t="s">
-        <v>763</v>
-      </c>
-      <c r="G176" t="s">
-        <v>764</v>
-      </c>
-      <c r="H176" t="s">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A176" s="8">
+        <v>375</v>
+      </c>
+      <c r="B176" s="8">
+        <v>473</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="H176" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I176" t="s">
-        <v>900</v>
-      </c>
-      <c r="J176" t="s">
-        <v>766</v>
-      </c>
-      <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176">
-        <v>-1000</v>
-      </c>
-      <c r="M176">
+      <c r="I176" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="J176" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="K176" s="8">
+        <v>0</v>
+      </c>
+      <c r="L176" s="8">
+        <v>0</v>
+      </c>
+      <c r="M176" s="8">
         <v>1000</v>
       </c>
       <c r="N176">
@@ -11323,41 +11439,44 @@
         <v>245</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>416</v>
-      </c>
-      <c r="B177">
-        <v>523</v>
-      </c>
-      <c r="C177" t="s">
-        <v>884</v>
-      </c>
-      <c r="D177" t="s">
-        <v>885</v>
-      </c>
-      <c r="E177" t="s">
-        <v>886</v>
-      </c>
-      <c r="F177" t="s">
-        <v>887</v>
-      </c>
-      <c r="G177" t="s">
-        <v>888</v>
-      </c>
-      <c r="H177" t="s">
+    <row r="177" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="8">
+        <v>187</v>
+      </c>
+      <c r="B177" s="8">
+        <v>246</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="H177" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I177" t="s">
-        <v>889</v>
-      </c>
-      <c r="K177">
-        <v>1</v>
-      </c>
-      <c r="L177">
+      <c r="I177" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K177" s="8">
+        <v>1</v>
+      </c>
+      <c r="L177" s="8">
         <v>-1000</v>
       </c>
-      <c r="M177">
+      <c r="M177" s="8">
         <v>1000</v>
       </c>
       <c r="N177">
@@ -11369,42 +11488,47 @@
       <c r="P177" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>447</v>
-      </c>
-      <c r="B178">
-        <v>581</v>
-      </c>
-      <c r="C178" t="s">
-        <v>934</v>
-      </c>
-      <c r="D178" t="s">
-        <v>935</v>
-      </c>
-      <c r="E178" t="s">
-        <v>936</v>
-      </c>
-      <c r="F178" t="s">
-        <v>937</v>
-      </c>
-      <c r="G178" t="s">
-        <v>938</v>
-      </c>
-      <c r="H178" t="s">
+      <c r="Q177" s="2"/>
+      <c r="R177"/>
+    </row>
+    <row r="178" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="8">
+        <v>200</v>
+      </c>
+      <c r="B178" s="8">
+        <v>265</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="H178" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I178" t="s">
-        <v>939</v>
-      </c>
-      <c r="K178">
-        <v>1</v>
-      </c>
-      <c r="L178">
+      <c r="I178" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="J178" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="K178" s="8">
+        <v>1</v>
+      </c>
+      <c r="L178" s="8">
         <v>-1000</v>
       </c>
-      <c r="M178">
+      <c r="M178" s="8">
         <v>1000</v>
       </c>
       <c r="N178">
@@ -11416,90 +11540,99 @@
       <c r="P178" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>786</v>
-      </c>
-      <c r="B179">
-        <v>149</v>
-      </c>
-      <c r="C179" t="s">
-        <v>731</v>
-      </c>
-      <c r="D179" t="s">
-        <v>732</v>
-      </c>
-      <c r="E179" t="s">
-        <v>733</v>
-      </c>
-      <c r="F179" t="s">
-        <v>734</v>
-      </c>
-      <c r="G179" t="s">
-        <v>734</v>
-      </c>
-      <c r="H179" t="s">
+      <c r="Q178"/>
+      <c r="R178"/>
+    </row>
+    <row r="179" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="8">
+        <v>431</v>
+      </c>
+      <c r="B179" s="8">
+        <v>559</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="H179" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I179" t="s">
-        <v>734</v>
-      </c>
-      <c r="J179"/>
-      <c r="K179">
-        <v>1</v>
-      </c>
-      <c r="L179">
+      <c r="I179" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K179" s="8">
+        <v>1</v>
+      </c>
+      <c r="L179" s="8">
         <v>-1000</v>
       </c>
-      <c r="M179">
-        <v>1000</v>
-      </c>
-      <c r="N179" s="8">
-        <v>0</v>
-      </c>
-      <c r="O179" s="8">
+      <c r="M179" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
         <v>4</v>
       </c>
-      <c r="P179" s="8" t="s">
+      <c r="P179" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>785</v>
-      </c>
-      <c r="B180">
-        <v>813</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D180" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F180" t="s">
-        <v>734</v>
-      </c>
-      <c r="G180" t="s">
-        <v>734</v>
-      </c>
-      <c r="H180" t="s">
+      <c r="Q179"/>
+      <c r="R179"/>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A180" s="8">
+        <v>477</v>
+      </c>
+      <c r="B180" s="8">
+        <v>579</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="H180" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I180" t="s">
-        <v>734</v>
-      </c>
-      <c r="K180">
-        <v>1</v>
-      </c>
-      <c r="L180">
-        <v>-1000</v>
-      </c>
-      <c r="M180">
+      <c r="I180" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="J180" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="K180" s="8">
+        <v>0</v>
+      </c>
+      <c r="L180" s="8">
+        <v>0</v>
+      </c>
+      <c r="M180" s="8">
         <v>1000</v>
       </c>
       <c r="N180">
@@ -11512,41 +11645,42 @@
         <v>245</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>156</v>
-      </c>
-      <c r="B181">
-        <v>197</v>
-      </c>
-      <c r="C181" t="s">
-        <v>770</v>
-      </c>
-      <c r="D181" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H181" t="s">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A181" s="8">
+        <v>760</v>
+      </c>
+      <c r="B181" s="8">
+        <v>693</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="H181" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="J181" s="7" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K181">
-        <v>0</v>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-      <c r="M181">
+      <c r="I181" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8">
+        <v>0</v>
+      </c>
+      <c r="L181" s="8">
+        <v>0</v>
+      </c>
+      <c r="M181" s="8">
         <v>1000</v>
       </c>
       <c r="N181">
@@ -11559,44 +11693,44 @@
         <v>245</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>157</v>
-      </c>
-      <c r="B182">
-        <v>198</v>
-      </c>
-      <c r="C182" t="s">
-        <v>774</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E182" t="s">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A182" s="8">
+        <v>595</v>
+      </c>
+      <c r="B182" s="8">
         <v>771</v>
       </c>
-      <c r="F182" s="21" t="s">
-        <v>1096</v>
-      </c>
-      <c r="G182" t="s">
-        <v>775</v>
-      </c>
-      <c r="H182" t="s">
+      <c r="C182" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H182" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I182" t="s">
-        <v>776</v>
-      </c>
-      <c r="J182" s="22" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K182">
-        <v>0</v>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-      <c r="M182">
+      <c r="I182" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J182" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K182" s="8">
+        <v>1</v>
+      </c>
+      <c r="L182" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="M182" s="8">
         <v>1000</v>
       </c>
       <c r="N182">
@@ -11609,41 +11743,42 @@
         <v>245</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>286</v>
-      </c>
-      <c r="B183">
-        <v>363</v>
-      </c>
-      <c r="C183" t="s">
-        <v>810</v>
-      </c>
-      <c r="D183" t="s">
-        <v>811</v>
-      </c>
-      <c r="E183" t="s">
-        <v>812</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G183" t="s">
-        <v>813</v>
-      </c>
-      <c r="H183" t="s">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A183" s="8">
+        <v>336</v>
+      </c>
+      <c r="B183" s="8">
+        <v>426</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="H183" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I183" t="s">
-        <v>814</v>
-      </c>
-      <c r="K183">
-        <v>0</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-      <c r="M183">
+      <c r="I183" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="J183" s="8"/>
+      <c r="K183" s="8">
+        <v>1</v>
+      </c>
+      <c r="L183" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="M183" s="8">
         <v>1000</v>
       </c>
       <c r="N183">
@@ -11656,21 +11791,43 @@
         <v>245</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E184" s="23" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H184" t="s">
-        <v>1083</v>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A184" s="8">
+        <v>532</v>
+      </c>
+      <c r="B184" s="8">
+        <v>692</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="I184" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="J184" s="8"/>
+      <c r="K184" s="8">
+        <v>0</v>
+      </c>
+      <c r="L184" s="8">
+        <v>0</v>
+      </c>
+      <c r="M184" s="8">
+        <v>1000</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -11682,180 +11839,175 @@
         <v>245</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="17" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>285</v>
-      </c>
-      <c r="B185">
-        <v>362</v>
-      </c>
-      <c r="C185" t="s">
-        <v>805</v>
-      </c>
-      <c r="D185" t="s">
-        <v>806</v>
-      </c>
-      <c r="E185" t="s">
-        <v>807</v>
-      </c>
-      <c r="F185" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G185" t="s">
-        <v>808</v>
-      </c>
-      <c r="H185" t="s">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A185" s="8">
+        <v>579</v>
+      </c>
+      <c r="B185" s="8">
+        <v>752</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="H185" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I185" t="s">
-        <v>809</v>
-      </c>
-      <c r="K185">
-        <v>0</v>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-      <c r="M185">
-        <v>1000</v>
-      </c>
-      <c r="N185">
-        <v>0</v>
-      </c>
-      <c r="O185">
+      <c r="I185" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="J185" s="8"/>
+      <c r="K185" s="8">
+        <v>0</v>
+      </c>
+      <c r="L185" s="8">
+        <v>0</v>
+      </c>
+      <c r="M185" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N185" s="8">
+        <v>0</v>
+      </c>
+      <c r="O185" s="8">
         <v>4</v>
       </c>
-      <c r="P185" t="s">
+      <c r="P185" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>460</v>
-      </c>
-      <c r="B186">
-        <v>594</v>
-      </c>
-      <c r="C186" t="s">
-        <v>945</v>
-      </c>
-      <c r="D186" t="s">
-        <v>946</v>
-      </c>
-      <c r="E186" t="s">
-        <v>947</v>
-      </c>
-      <c r="F186" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G186" t="s">
-        <v>948</v>
-      </c>
-      <c r="H186" t="s">
+    <row r="186" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="8">
+        <v>610</v>
+      </c>
+      <c r="B186" s="8">
+        <v>787</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="H186" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I186" t="s">
-        <v>949</v>
-      </c>
-      <c r="K186">
-        <v>0</v>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-      <c r="M186">
-        <v>1000</v>
-      </c>
-      <c r="N186">
-        <v>0</v>
-      </c>
-      <c r="O186">
+      <c r="I186" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K186" s="8">
+        <v>0</v>
+      </c>
+      <c r="L186" s="8">
+        <v>0</v>
+      </c>
+      <c r="M186" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N186" s="8">
+        <v>0</v>
+      </c>
+      <c r="O186" s="8">
         <v>4</v>
       </c>
-      <c r="P186" t="s">
+      <c r="P186" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>104</v>
-      </c>
-      <c r="B187">
-        <v>147</v>
-      </c>
-      <c r="C187" t="s">
-        <v>723</v>
-      </c>
-      <c r="D187" t="s">
-        <v>724</v>
-      </c>
-      <c r="E187" t="s">
-        <v>725</v>
-      </c>
-      <c r="F187" s="21" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G187" t="s">
-        <v>726</v>
-      </c>
-      <c r="H187" t="s">
+    <row r="187" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="8">
+        <v>335</v>
+      </c>
+      <c r="B187" s="8">
+        <v>424</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="H187" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I187" t="s">
-        <v>727</v>
-      </c>
-      <c r="J187" s="7" t="s">
-        <v>1055</v>
-      </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-      <c r="M187">
-        <v>1000</v>
-      </c>
-      <c r="N187">
-        <v>0</v>
-      </c>
-      <c r="O187">
-        <v>2</v>
-      </c>
-      <c r="P187" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="I187" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="K187" s="8">
+        <v>0</v>
+      </c>
+      <c r="L187" s="8">
+        <v>0</v>
+      </c>
+      <c r="M187" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N187" s="8">
+        <v>0</v>
+      </c>
+      <c r="O187" s="8">
+        <v>4</v>
+      </c>
+      <c r="P187" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="B188">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="C188" t="s">
-        <v>728</v>
+        <v>796</v>
       </c>
       <c r="D188" t="s">
-        <v>729</v>
+        <v>797</v>
       </c>
       <c r="E188" t="s">
-        <v>730</v>
-      </c>
-      <c r="F188" s="21" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G188" t="s">
-        <v>726</v>
+        <v>798</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>1097</v>
       </c>
       <c r="H188" t="s">
         <v>663</v>
       </c>
       <c r="I188" t="s">
-        <v>727</v>
-      </c>
-      <c r="J188" s="7" t="s">
-        <v>1055</v>
+        <v>799</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -11876,41 +12028,93 @@
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>432</v>
+      </c>
+      <c r="B189">
+        <v>560</v>
+      </c>
       <c r="C189" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D189" s="25" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E189" s="23" t="s">
-        <v>1091</v>
+        <v>898</v>
+      </c>
+      <c r="D189" t="s">
+        <v>899</v>
+      </c>
+      <c r="E189" t="s">
+        <v>900</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>1093</v>
+        <v>1096</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H189" t="s">
+        <v>663</v>
+      </c>
+      <c r="I189" t="s">
+        <v>902</v>
+      </c>
+      <c r="J189"/>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>1000</v>
       </c>
       <c r="N189">
         <v>0</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="P189" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="D190" s="24" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E190" s="23" t="s">
-        <v>1072</v>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>461</v>
+      </c>
+      <c r="B190">
+        <v>596</v>
+      </c>
+      <c r="C190" t="s">
+        <v>943</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E190" t="s">
+        <v>944</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J190" s="9" t="s">
-        <v>1073</v>
+        <v>1095</v>
+      </c>
+      <c r="G190" t="s">
+        <v>945</v>
+      </c>
+      <c r="H190" t="s">
+        <v>663</v>
+      </c>
+      <c r="I190" t="s">
+        <v>946</v>
+      </c>
+      <c r="J190" t="s">
+        <v>763</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>-1000</v>
+      </c>
+      <c r="M190">
+        <v>1000</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -11922,42 +12126,42 @@
         <v>245</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>433</v>
+        <v>127</v>
       </c>
       <c r="B191">
-        <v>561</v>
+        <v>178</v>
       </c>
       <c r="C191" t="s">
-        <v>910</v>
+        <v>758</v>
       </c>
       <c r="D191" t="s">
-        <v>911</v>
+        <v>759</v>
       </c>
       <c r="E191" t="s">
-        <v>912</v>
-      </c>
-      <c r="F191" s="6" t="s">
-        <v>1057</v>
+        <v>760</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>1092</v>
       </c>
       <c r="G191" t="s">
-        <v>914</v>
+        <v>761</v>
       </c>
       <c r="H191" t="s">
         <v>663</v>
       </c>
       <c r="I191" t="s">
-        <v>915</v>
-      </c>
-      <c r="J191" s="13" t="s">
-        <v>1056</v>
+        <v>762</v>
+      </c>
+      <c r="J191" t="s">
+        <v>763</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="M191">
         <v>1000</v>
@@ -11972,33 +12176,36 @@
         <v>245</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="B192">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="C192" t="s">
-        <v>940</v>
+        <v>892</v>
       </c>
       <c r="D192" t="s">
-        <v>941</v>
+        <v>893</v>
       </c>
       <c r="E192" t="s">
-        <v>942</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1052</v>
+        <v>894</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>1092</v>
       </c>
       <c r="G192" t="s">
-        <v>943</v>
+        <v>761</v>
       </c>
       <c r="H192" t="s">
         <v>663</v>
       </c>
       <c r="I192" t="s">
-        <v>944</v>
+        <v>1093</v>
+      </c>
+      <c r="J192" t="s">
+        <v>763</v>
       </c>
       <c r="K192">
         <v>1</v>
@@ -12021,40 +12228,37 @@
     </row>
     <row r="193" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>505</v>
+        <v>785</v>
       </c>
       <c r="B193">
-        <v>659</v>
+        <v>813</v>
       </c>
       <c r="C193" t="s">
-        <v>958</v>
+        <v>1024</v>
       </c>
       <c r="D193" t="s">
-        <v>959</v>
+        <v>1025</v>
       </c>
       <c r="E193" t="s">
-        <v>960</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>1059</v>
+        <v>1026</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>1091</v>
       </c>
       <c r="G193" t="s">
-        <v>961</v>
+        <v>734</v>
       </c>
       <c r="H193" t="s">
         <v>663</v>
       </c>
-      <c r="I193" s="6" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J193" s="13" t="s">
-        <v>1058</v>
+      <c r="I193" t="s">
+        <v>734</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="M193">
         <v>1000</v>
@@ -12063,37 +12267,39 @@
         <v>0</v>
       </c>
       <c r="O193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P193" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q193" s="2"/>
+        <v>245</v>
+      </c>
     </row>
     <row r="194" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B194">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>703</v>
+        <v>767</v>
       </c>
       <c r="D194" t="s">
-        <v>704</v>
+        <v>1089</v>
       </c>
       <c r="E194" t="s">
-        <v>705</v>
+        <v>1087</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>1045</v>
+        <v>1033</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>1033</v>
       </c>
       <c r="H194" t="s">
         <v>663</v>
       </c>
-      <c r="J194" s="9" t="s">
-        <v>1044</v>
+      <c r="J194" s="7" t="s">
+        <v>1034</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -12108,24 +12314,51 @@
         <v>0</v>
       </c>
       <c r="O194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P194" t="s">
-        <v>1015</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>157</v>
+      </c>
+      <c r="B195">
+        <v>198</v>
+      </c>
       <c r="C195" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D195" s="25" t="s">
-        <v>1084</v>
+        <v>771</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1090</v>
       </c>
       <c r="E195" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>1086</v>
+        <v>768</v>
+      </c>
+      <c r="F195" s="21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G195" t="s">
+        <v>772</v>
+      </c>
+      <c r="H195" t="s">
+        <v>663</v>
+      </c>
+      <c r="I195" t="s">
+        <v>773</v>
+      </c>
+      <c r="J195" s="22" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>1000</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -12139,34 +12372,31 @@
     </row>
     <row r="196" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="B196">
-        <v>552</v>
+        <v>363</v>
       </c>
       <c r="C196" t="s">
-        <v>893</v>
+        <v>805</v>
       </c>
       <c r="D196" t="s">
-        <v>894</v>
+        <v>806</v>
       </c>
       <c r="E196" t="s">
-        <v>895</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>1049</v>
+        <v>807</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G196" t="s">
+        <v>808</v>
       </c>
       <c r="H196" t="s">
         <v>663</v>
       </c>
       <c r="I196" t="s">
-        <v>896</v>
-      </c>
-      <c r="J196" s="12" t="s">
-        <v>1050</v>
+        <v>809</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -12188,29 +12418,20 @@
       </c>
     </row>
     <row r="197" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="C197" s="23" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>1064</v>
+      <c r="C197" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1080</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F197" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>1061</v>
+        <v>1073</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>1081</v>
       </c>
       <c r="H197" t="s">
-        <v>663</v>
-      </c>
-      <c r="I197" t="s">
-        <v>1063</v>
-      </c>
-      <c r="J197" s="13" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -12222,24 +12443,42 @@
         <v>245</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="D198" s="6" t="s">
-        <v>1071</v>
+    <row r="198" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>285</v>
+      </c>
+      <c r="B198">
+        <v>362</v>
+      </c>
+      <c r="C198" t="s">
+        <v>800</v>
+      </c>
+      <c r="D198" t="s">
+        <v>801</v>
       </c>
       <c r="E198" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>1069</v>
+        <v>802</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G198" t="s">
+        <v>803</v>
       </c>
       <c r="H198" t="s">
         <v>663</v>
       </c>
-      <c r="J198" s="22" t="s">
-        <v>1070</v>
+      <c r="I198" t="s">
+        <v>804</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>1000</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -12251,33 +12490,33 @@
         <v>245</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>155</v>
+        <v>460</v>
       </c>
       <c r="B199">
-        <v>177</v>
+        <v>594</v>
       </c>
       <c r="C199" t="s">
-        <v>755</v>
+        <v>938</v>
       </c>
       <c r="D199" t="s">
-        <v>756</v>
+        <v>939</v>
       </c>
       <c r="E199" t="s">
-        <v>757</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>1048</v>
+        <v>940</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1086</v>
       </c>
       <c r="G199" t="s">
-        <v>758</v>
+        <v>941</v>
       </c>
       <c r="H199" t="s">
         <v>663</v>
       </c>
       <c r="I199" t="s">
-        <v>759</v>
+        <v>942</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -12298,52 +12537,74 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>104</v>
+      </c>
+      <c r="B200">
+        <v>147</v>
+      </c>
       <c r="C200" t="s">
-        <v>1080</v>
+        <v>723</v>
       </c>
       <c r="D200" t="s">
-        <v>1076</v>
+        <v>724</v>
       </c>
       <c r="E200" t="s">
-        <v>846</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I200" s="25" t="s">
-        <v>1079</v>
-      </c>
-      <c r="J200" s="22" t="s">
-        <v>1078</v>
+        <v>725</v>
+      </c>
+      <c r="F200" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G200" t="s">
+        <v>726</v>
+      </c>
+      <c r="H200" t="s">
+        <v>663</v>
+      </c>
+      <c r="I200" t="s">
+        <v>727</v>
+      </c>
+      <c r="J200" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>1000</v>
       </c>
       <c r="N200">
         <v>0</v>
       </c>
       <c r="O200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P200" t="s">
-        <v>245</v>
-      </c>
+        <v>1007</v>
+      </c>
+      <c r="Q200" s="2"/>
     </row>
     <row r="201" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>773</v>
+        <v>105</v>
       </c>
       <c r="B201">
-        <v>815</v>
+        <v>148</v>
       </c>
       <c r="C201" t="s">
-        <v>1038</v>
+        <v>728</v>
       </c>
       <c r="D201" t="s">
-        <v>1039</v>
+        <v>729</v>
       </c>
       <c r="E201" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F201" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="F201" s="21" t="s">
         <v>1046</v>
       </c>
       <c r="G201" t="s">
@@ -12352,7 +12613,10 @@
       <c r="H201" t="s">
         <v>663</v>
       </c>
-      <c r="J201" s="9" t="s">
+      <c r="I201" t="s">
+        <v>727</v>
+      </c>
+      <c r="J201" s="7" t="s">
         <v>1047</v>
       </c>
       <c r="K201">
@@ -12375,44 +12639,17 @@
       </c>
     </row>
     <row r="202" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>633</v>
-      </c>
-      <c r="B202">
-        <v>814</v>
-      </c>
       <c r="C202" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E202" t="s">
-        <v>1037</v>
+        <v>1084</v>
+      </c>
+      <c r="D202" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E202" s="23" t="s">
+        <v>1083</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G202" t="s">
-        <v>908</v>
-      </c>
-      <c r="H202" t="s">
-        <v>663</v>
-      </c>
-      <c r="I202" t="s">
-        <v>909</v>
-      </c>
-      <c r="J202" s="13" t="s">
-        <v>1047</v>
-      </c>
-      <c r="K202">
-        <v>0</v>
-      </c>
-      <c r="L202">
-        <v>0</v>
-      </c>
-      <c r="M202">
-        <v>1000</v>
+        <v>1085</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -12424,36 +12661,18 @@
         <v>245</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>702</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203" t="s">
-        <v>660</v>
-      </c>
-      <c r="D203" t="s">
-        <v>661</v>
-      </c>
-      <c r="E203" t="s">
-        <v>662</v>
-      </c>
-      <c r="H203" t="s">
-        <v>663</v>
-      </c>
-      <c r="J203" t="s">
-        <v>391</v>
-      </c>
-      <c r="K203">
-        <v>1</v>
-      </c>
-      <c r="L203">
-        <v>-1000</v>
-      </c>
-      <c r="M203">
-        <v>1000</v>
+    <row r="203" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="D203" s="24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E203" s="23" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>1065</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -12465,30 +12684,42 @@
         <v>245</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>2</v>
+        <v>433</v>
       </c>
       <c r="B204">
-        <v>14</v>
+        <v>561</v>
       </c>
       <c r="C204" t="s">
-        <v>666</v>
+        <v>903</v>
       </c>
       <c r="D204" t="s">
-        <v>667</v>
+        <v>904</v>
       </c>
       <c r="E204" t="s">
-        <v>668</v>
+        <v>905</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G204" t="s">
+        <v>907</v>
       </c>
       <c r="H204" t="s">
         <v>663</v>
       </c>
+      <c r="I204" t="s">
+        <v>908</v>
+      </c>
+      <c r="J204" s="13" t="s">
+        <v>1048</v>
+      </c>
       <c r="K204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M204">
         <v>1000</v>
@@ -12505,25 +12736,31 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>712</v>
+        <v>458</v>
       </c>
       <c r="B205">
-        <v>35</v>
+        <v>593</v>
       </c>
       <c r="C205" t="s">
-        <v>669</v>
+        <v>933</v>
       </c>
       <c r="D205" t="s">
-        <v>670</v>
+        <v>934</v>
       </c>
       <c r="E205" t="s">
-        <v>671</v>
+        <v>935</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G205" t="s">
+        <v>936</v>
       </c>
       <c r="H205" t="s">
         <v>663</v>
       </c>
-      <c r="J205" t="s">
-        <v>391</v>
+      <c r="I205" t="s">
+        <v>937</v>
       </c>
       <c r="K205">
         <v>1</v>
@@ -12544,30 +12781,42 @@
         <v>245</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="B206">
-        <v>36</v>
+        <v>659</v>
       </c>
       <c r="C206" t="s">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="D206" t="s">
-        <v>675</v>
+        <v>951</v>
       </c>
       <c r="E206" t="s">
-        <v>676</v>
+        <v>952</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G206" t="s">
+        <v>953</v>
       </c>
       <c r="H206" t="s">
         <v>663</v>
       </c>
+      <c r="I206" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J206" s="13" t="s">
+        <v>1050</v>
+      </c>
       <c r="K206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M206">
         <v>1000</v>
@@ -12576,36 +12825,42 @@
         <v>0</v>
       </c>
       <c r="O206">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="P206" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B207">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C207" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="D207" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="E207" t="s">
-        <v>679</v>
+        <v>705</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>1037</v>
       </c>
       <c r="H207" t="s">
         <v>663</v>
       </c>
+      <c r="J207" s="9" t="s">
+        <v>1036</v>
+      </c>
       <c r="K207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L207">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M207">
         <v>1000</v>
@@ -12614,80 +12869,71 @@
         <v>0</v>
       </c>
       <c r="O207">
+        <v>2</v>
+      </c>
+      <c r="P207" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D208" s="25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
         <v>4</v>
       </c>
-      <c r="P207" t="s">
+      <c r="P208" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>703</v>
-      </c>
-      <c r="B208">
-        <v>160</v>
-      </c>
-      <c r="C208" t="s">
-        <v>735</v>
-      </c>
-      <c r="D208" t="s">
-        <v>736</v>
-      </c>
-      <c r="E208" t="s">
-        <v>737</v>
-      </c>
-      <c r="H208" t="s">
-        <v>663</v>
-      </c>
-      <c r="J208" t="s">
-        <v>391</v>
-      </c>
-      <c r="K208">
-        <v>1</v>
-      </c>
-      <c r="L208">
-        <v>-1000</v>
-      </c>
-      <c r="M208">
-        <v>1000</v>
-      </c>
-      <c r="N208">
-        <v>0</v>
-      </c>
-      <c r="O208">
-        <v>5</v>
-      </c>
-      <c r="P208" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>120</v>
+        <v>429</v>
       </c>
       <c r="B209">
-        <v>167</v>
+        <v>552</v>
       </c>
       <c r="C209" t="s">
-        <v>739</v>
+        <v>888</v>
       </c>
       <c r="D209" t="s">
-        <v>740</v>
+        <v>889</v>
       </c>
       <c r="E209" t="s">
-        <v>741</v>
+        <v>890</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>1041</v>
       </c>
       <c r="H209" t="s">
         <v>663</v>
       </c>
-      <c r="J209" t="s">
-        <v>391</v>
+      <c r="I209" t="s">
+        <v>891</v>
+      </c>
+      <c r="J209" s="12" t="s">
+        <v>1042</v>
       </c>
       <c r="K209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L209">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M209">
         <v>1000</v>
@@ -12702,74 +12948,59 @@
         <v>245</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>121</v>
-      </c>
-      <c r="B210">
-        <v>168</v>
-      </c>
-      <c r="C210" t="s">
-        <v>742</v>
-      </c>
-      <c r="D210" t="s">
-        <v>743</v>
-      </c>
-      <c r="E210" t="s">
-        <v>744</v>
+    <row r="210" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="C210" s="23" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E210" s="23" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>1053</v>
       </c>
       <c r="H210" t="s">
         <v>663</v>
       </c>
-      <c r="J210" t="s">
-        <v>391</v>
-      </c>
-      <c r="K210">
-        <v>1</v>
-      </c>
-      <c r="L210">
-        <v>-1000</v>
-      </c>
-      <c r="M210">
-        <v>1000</v>
+      <c r="I210" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J210" s="13" t="s">
+        <v>1054</v>
       </c>
       <c r="N210">
         <v>0</v>
       </c>
-      <c r="O210" s="1" t="s">
-        <v>664</v>
+      <c r="O210">
+        <v>4</v>
       </c>
       <c r="P210" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>151</v>
-      </c>
-      <c r="B211">
-        <v>204</v>
-      </c>
-      <c r="C211" t="s">
-        <v>777</v>
-      </c>
-      <c r="D211" t="s">
-        <v>778</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="D211" s="6" t="s">
+        <v>1063</v>
       </c>
       <c r="E211" t="s">
-        <v>779</v>
+        <v>1060</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>1061</v>
       </c>
       <c r="H211" t="s">
         <v>663</v>
       </c>
-      <c r="K211">
-        <v>1</v>
-      </c>
-      <c r="L211">
-        <v>-1000</v>
-      </c>
-      <c r="M211">
-        <v>1000</v>
+      <c r="J211" s="22" t="s">
+        <v>1062</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -12781,33 +13012,39 @@
         <v>245</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>812</v>
+        <v>155</v>
       </c>
       <c r="B212">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C212" t="s">
-        <v>786</v>
+        <v>753</v>
       </c>
       <c r="D212" t="s">
-        <v>787</v>
+        <v>754</v>
       </c>
       <c r="E212" t="s">
-        <v>788</v>
+        <v>755</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G212" t="s">
+        <v>756</v>
       </c>
       <c r="H212" t="s">
         <v>663</v>
       </c>
-      <c r="J212" t="s">
-        <v>391</v>
+      <c r="I212" t="s">
+        <v>757</v>
       </c>
       <c r="K212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L212">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M212">
         <v>1000</v>
@@ -12815,43 +13052,31 @@
       <c r="N212">
         <v>0</v>
       </c>
-      <c r="O212" s="1" t="s">
-        <v>672</v>
+      <c r="O212">
+        <v>4</v>
       </c>
       <c r="P212" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>705</v>
-      </c>
-      <c r="B213">
-        <v>266</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C213" t="s">
-        <v>793</v>
+        <v>1072</v>
       </c>
       <c r="D213" t="s">
-        <v>794</v>
+        <v>1068</v>
       </c>
       <c r="E213" t="s">
-        <v>795</v>
-      </c>
-      <c r="H213" t="s">
-        <v>663</v>
-      </c>
-      <c r="J213" t="s">
-        <v>391</v>
-      </c>
-      <c r="K213">
-        <v>1</v>
-      </c>
-      <c r="L213">
-        <v>-1000</v>
-      </c>
-      <c r="M213">
-        <v>1000</v>
+        <v>841</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I213" s="25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J213" s="22" t="s">
+        <v>1070</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -12863,33 +13088,39 @@
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>704</v>
+        <v>773</v>
       </c>
       <c r="B214">
-        <v>267</v>
+        <v>815</v>
       </c>
       <c r="C214" t="s">
-        <v>796</v>
+        <v>1030</v>
       </c>
       <c r="D214" t="s">
-        <v>797</v>
+        <v>1031</v>
       </c>
       <c r="E214" t="s">
-        <v>798</v>
+        <v>1032</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G214" t="s">
+        <v>726</v>
       </c>
       <c r="H214" t="s">
         <v>663</v>
       </c>
-      <c r="J214" t="s">
-        <v>391</v>
+      <c r="J214" s="9" t="s">
+        <v>1039</v>
       </c>
       <c r="K214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L214">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M214">
         <v>1000</v>
@@ -12903,31 +13134,45 @@
       <c r="P214" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q214" s="8"/>
+      <c r="R214" s="8"/>
+    </row>
+    <row r="215" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>291</v>
+        <v>633</v>
       </c>
       <c r="B215">
-        <v>371</v>
+        <v>814</v>
       </c>
       <c r="C215" t="s">
-        <v>815</v>
+        <v>1027</v>
       </c>
       <c r="D215" t="s">
-        <v>816</v>
+        <v>1028</v>
       </c>
       <c r="E215" t="s">
-        <v>817</v>
+        <v>1029</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G215" t="s">
+        <v>901</v>
       </c>
       <c r="H215" t="s">
         <v>663</v>
       </c>
+      <c r="I215" t="s">
+        <v>902</v>
+      </c>
+      <c r="J215" s="13" t="s">
+        <v>1039</v>
+      </c>
       <c r="K215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M215">
         <v>1000</v>
@@ -12935,32 +13180,37 @@
       <c r="N215">
         <v>0</v>
       </c>
-      <c r="O215" s="1" t="s">
-        <v>664</v>
+      <c r="O215">
+        <v>4</v>
       </c>
       <c r="P215" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="Q215" s="8"/>
+      <c r="R215" s="8"/>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>793</v>
+        <v>702</v>
       </c>
       <c r="B216">
-        <v>372</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>818</v>
+        <v>660</v>
       </c>
       <c r="D216" t="s">
-        <v>819</v>
+        <v>661</v>
       </c>
       <c r="E216" t="s">
-        <v>820</v>
+        <v>662</v>
       </c>
       <c r="H216" t="s">
         <v>663</v>
       </c>
+      <c r="J216" t="s">
+        <v>391</v>
+      </c>
       <c r="K216">
         <v>1</v>
       </c>
@@ -12979,23 +13229,24 @@
       <c r="P216" t="s">
         <v>245</v>
       </c>
-      <c r="Q216" s="2"/>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q216" s="8"/>
+      <c r="R216" s="8"/>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>306</v>
+        <v>2</v>
       </c>
       <c r="B217">
-        <v>389</v>
+        <v>14</v>
       </c>
       <c r="C217" t="s">
-        <v>823</v>
+        <v>666</v>
       </c>
       <c r="D217" t="s">
-        <v>824</v>
+        <v>667</v>
       </c>
       <c r="E217" t="s">
-        <v>825</v>
+        <v>668</v>
       </c>
       <c r="H217" t="s">
         <v>663</v>
@@ -13018,28 +13269,30 @@
       <c r="P217" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q217" s="8"/>
+      <c r="R217" s="8"/>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B218">
-        <v>406</v>
+        <v>35</v>
       </c>
       <c r="C218" t="s">
-        <v>826</v>
+        <v>669</v>
       </c>
       <c r="D218" t="s">
-        <v>827</v>
+        <v>670</v>
       </c>
       <c r="E218" t="s">
-        <v>828</v>
+        <v>671</v>
       </c>
       <c r="H218" t="s">
         <v>663</v>
       </c>
-      <c r="I218" t="s">
-        <v>829</v>
+      <c r="J218" t="s">
+        <v>391</v>
       </c>
       <c r="K218">
         <v>1</v>
@@ -13059,22 +13312,24 @@
       <c r="P218" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q218" s="8"/>
+      <c r="R218" s="8"/>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>333</v>
+        <v>17</v>
       </c>
       <c r="B219">
-        <v>417</v>
+        <v>36</v>
       </c>
       <c r="C219" t="s">
-        <v>830</v>
+        <v>674</v>
       </c>
       <c r="D219" t="s">
-        <v>831</v>
+        <v>675</v>
       </c>
       <c r="E219" t="s">
-        <v>832</v>
+        <v>676</v>
       </c>
       <c r="H219" t="s">
         <v>663</v>
@@ -13092,27 +13347,29 @@
         <v>0</v>
       </c>
       <c r="O219">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="P219" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+        <v>917</v>
+      </c>
+      <c r="Q219" s="8"/>
+      <c r="R219" s="8"/>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>351</v>
+        <v>54</v>
       </c>
       <c r="B220">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="C220" t="s">
-        <v>856</v>
+        <v>677</v>
       </c>
       <c r="D220" t="s">
-        <v>857</v>
+        <v>678</v>
       </c>
       <c r="E220" t="s">
-        <v>858</v>
+        <v>679</v>
       </c>
       <c r="H220" t="s">
         <v>663</v>
@@ -13129,32 +13386,37 @@
       <c r="N220">
         <v>0</v>
       </c>
-      <c r="O220" s="1" t="s">
-        <v>664</v>
+      <c r="O220">
+        <v>4</v>
       </c>
       <c r="P220" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="Q220" s="8"/>
+      <c r="R220" s="8"/>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>380</v>
+        <v>703</v>
       </c>
       <c r="B221">
-        <v>478</v>
+        <v>160</v>
       </c>
       <c r="C221" t="s">
-        <v>863</v>
+        <v>735</v>
       </c>
       <c r="D221" t="s">
-        <v>864</v>
+        <v>736</v>
       </c>
       <c r="E221" t="s">
-        <v>865</v>
+        <v>737</v>
       </c>
       <c r="H221" t="s">
         <v>663</v>
       </c>
+      <c r="J221" t="s">
+        <v>391</v>
+      </c>
       <c r="K221">
         <v>1</v>
       </c>
@@ -13167,32 +13429,37 @@
       <c r="N221">
         <v>0</v>
       </c>
-      <c r="O221" s="1" t="s">
-        <v>664</v>
+      <c r="O221">
+        <v>5</v>
       </c>
       <c r="P221" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="Q221" s="8"/>
+      <c r="R221" s="8"/>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>396</v>
+        <v>120</v>
       </c>
       <c r="B222">
-        <v>498</v>
+        <v>167</v>
       </c>
       <c r="C222" t="s">
-        <v>872</v>
+        <v>739</v>
       </c>
       <c r="D222" t="s">
-        <v>873</v>
+        <v>740</v>
       </c>
       <c r="E222" t="s">
-        <v>874</v>
+        <v>741</v>
       </c>
       <c r="H222" t="s">
         <v>663</v>
       </c>
+      <c r="J222" t="s">
+        <v>391</v>
+      </c>
       <c r="K222">
         <v>1</v>
       </c>
@@ -13211,31 +13478,36 @@
       <c r="P222" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q222" s="8"/>
+      <c r="R222" s="8"/>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>442</v>
+        <v>121</v>
       </c>
       <c r="B223">
-        <v>574</v>
+        <v>168</v>
       </c>
       <c r="C223" t="s">
-        <v>925</v>
+        <v>742</v>
       </c>
       <c r="D223" t="s">
-        <v>926</v>
+        <v>743</v>
       </c>
       <c r="E223" t="s">
-        <v>927</v>
+        <v>744</v>
       </c>
       <c r="H223" t="s">
         <v>663</v>
       </c>
+      <c r="J223" t="s">
+        <v>391</v>
+      </c>
       <c r="K223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L223">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="M223">
         <v>1000</v>
@@ -13244,27 +13516,29 @@
         <v>0</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>821</v>
+        <v>664</v>
       </c>
       <c r="P223" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+      <c r="Q223" s="8"/>
+      <c r="R223" s="8"/>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>492</v>
+        <v>151</v>
       </c>
       <c r="B224">
-        <v>643</v>
+        <v>204</v>
       </c>
       <c r="C224" t="s">
-        <v>955</v>
+        <v>774</v>
       </c>
       <c r="D224" t="s">
-        <v>956</v>
+        <v>775</v>
       </c>
       <c r="E224" t="s">
-        <v>957</v>
+        <v>776</v>
       </c>
       <c r="H224" t="s">
         <v>663</v>
@@ -13287,26 +13561,31 @@
       <c r="P224" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q224" s="8"/>
+      <c r="R224" s="8"/>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>509</v>
+        <v>812</v>
       </c>
       <c r="B225">
-        <v>664</v>
+        <v>250</v>
       </c>
       <c r="C225" t="s">
-        <v>962</v>
+        <v>783</v>
       </c>
       <c r="D225" t="s">
-        <v>963</v>
+        <v>784</v>
       </c>
       <c r="E225" t="s">
-        <v>964</v>
+        <v>785</v>
       </c>
       <c r="H225" t="s">
         <v>663</v>
       </c>
+      <c r="J225" t="s">
+        <v>391</v>
+      </c>
       <c r="K225">
         <v>1</v>
       </c>
@@ -13319,37 +13598,42 @@
       <c r="N225">
         <v>0</v>
       </c>
-      <c r="O225">
-        <v>4</v>
+      <c r="O225" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="P225" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+      <c r="Q225" s="8"/>
+      <c r="R225" s="8"/>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>543</v>
+        <v>705</v>
       </c>
       <c r="B226">
-        <v>709</v>
+        <v>266</v>
       </c>
       <c r="C226" t="s">
-        <v>986</v>
+        <v>790</v>
       </c>
       <c r="D226" t="s">
-        <v>987</v>
+        <v>791</v>
       </c>
       <c r="E226" t="s">
-        <v>988</v>
+        <v>792</v>
       </c>
       <c r="H226" t="s">
         <v>663</v>
       </c>
+      <c r="J226" t="s">
+        <v>391</v>
+      </c>
       <c r="K226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L226">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="M226">
         <v>1000</v>
@@ -13363,31 +13647,36 @@
       <c r="P226" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q226" s="8"/>
+      <c r="R226" s="8"/>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>552</v>
+        <v>704</v>
       </c>
       <c r="B227">
-        <v>721</v>
+        <v>267</v>
       </c>
       <c r="C227" t="s">
-        <v>989</v>
+        <v>793</v>
       </c>
       <c r="D227" t="s">
-        <v>990</v>
+        <v>794</v>
       </c>
       <c r="E227" t="s">
-        <v>991</v>
+        <v>795</v>
       </c>
       <c r="H227" t="s">
         <v>663</v>
       </c>
+      <c r="J227" t="s">
+        <v>391</v>
+      </c>
       <c r="K227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L227">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="M227">
         <v>1000</v>
@@ -13401,22 +13690,24 @@
       <c r="P227" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q227" s="8"/>
+      <c r="R227" s="8"/>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>573</v>
+        <v>291</v>
       </c>
       <c r="B228">
-        <v>746</v>
+        <v>371</v>
       </c>
       <c r="C228" t="s">
-        <v>992</v>
+        <v>810</v>
       </c>
       <c r="D228" t="s">
-        <v>993</v>
+        <v>811</v>
       </c>
       <c r="E228" t="s">
-        <v>994</v>
+        <v>812</v>
       </c>
       <c r="H228" t="s">
         <v>663</v>
@@ -13433,37 +13724,39 @@
       <c r="N228">
         <v>0</v>
       </c>
-      <c r="O228">
-        <v>4</v>
+      <c r="O228" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="P228" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+        <v>738</v>
+      </c>
+      <c r="Q228" s="8"/>
+      <c r="R228" s="8"/>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>584</v>
+        <v>793</v>
       </c>
       <c r="B229">
-        <v>759</v>
+        <v>372</v>
       </c>
       <c r="C229" t="s">
-        <v>1003</v>
+        <v>813</v>
       </c>
       <c r="D229" t="s">
-        <v>1004</v>
+        <v>814</v>
       </c>
       <c r="E229" t="s">
-        <v>1005</v>
+        <v>815</v>
       </c>
       <c r="H229" t="s">
         <v>663</v>
       </c>
       <c r="K229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L229">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="M229">
         <v>1000</v>
@@ -13477,43 +13770,35 @@
       <c r="P229" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A230" s="8">
-        <v>408</v>
-      </c>
-      <c r="B230" s="8">
-        <v>513</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="E230" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="F230" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="G230" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="H230" s="8" t="s">
+      <c r="Q229" s="8"/>
+      <c r="R229" s="8"/>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>306</v>
+      </c>
+      <c r="B230">
+        <v>389</v>
+      </c>
+      <c r="C230" t="s">
+        <v>818</v>
+      </c>
+      <c r="D230" t="s">
+        <v>819</v>
+      </c>
+      <c r="E230" t="s">
+        <v>820</v>
+      </c>
+      <c r="H230" t="s">
         <v>663</v>
       </c>
-      <c r="I230" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="J230" s="8"/>
-      <c r="K230" s="8">
-        <v>1</v>
-      </c>
-      <c r="L230" s="8">
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
         <v>-1000</v>
       </c>
-      <c r="M230" s="8">
+      <c r="M230">
         <v>1000</v>
       </c>
       <c r="N230">
@@ -13526,44 +13811,35 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A231" s="8">
-        <v>514</v>
-      </c>
-      <c r="B231" s="8">
-        <v>669</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>967</v>
-      </c>
-      <c r="F231" s="8" t="s">
-        <v>968</v>
-      </c>
-      <c r="G231" s="8" t="s">
-        <v>968</v>
-      </c>
-      <c r="H231" s="8" t="s">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>321</v>
+      </c>
+      <c r="B231">
+        <v>406</v>
+      </c>
+      <c r="C231" t="s">
+        <v>821</v>
+      </c>
+      <c r="D231" t="s">
+        <v>822</v>
+      </c>
+      <c r="E231" t="s">
+        <v>823</v>
+      </c>
+      <c r="H231" t="s">
         <v>663</v>
       </c>
-      <c r="I231" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="J231" s="8" t="s">
-        <v>970</v>
-      </c>
-      <c r="K231" s="8">
-        <v>0</v>
-      </c>
-      <c r="L231" s="8">
-        <v>0</v>
-      </c>
-      <c r="M231" s="8">
+      <c r="I231" t="s">
+        <v>824</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>-1000</v>
+      </c>
+      <c r="M231">
         <v>1000</v>
       </c>
       <c r="N231">
@@ -13576,190 +13852,146 @@
         <v>245</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A232" s="8">
-        <v>721</v>
-      </c>
-      <c r="B232" s="8">
-        <v>133</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="E232" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="F232" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="G232" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="H232" s="8" t="s">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>333</v>
+      </c>
+      <c r="B232">
+        <v>417</v>
+      </c>
+      <c r="C232" t="s">
+        <v>825</v>
+      </c>
+      <c r="D232" t="s">
+        <v>826</v>
+      </c>
+      <c r="E232" t="s">
+        <v>827</v>
+      </c>
+      <c r="H232" t="s">
         <v>663</v>
       </c>
-      <c r="I232" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="J232" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="K232" s="8">
-        <v>0</v>
-      </c>
-      <c r="L232" s="8">
-        <v>0</v>
-      </c>
-      <c r="M232" s="8">
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>-1000</v>
+      </c>
+      <c r="M232">
         <v>1000</v>
       </c>
       <c r="N232">
         <v>0</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="P232" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A233" s="8">
-        <v>93</v>
-      </c>
-      <c r="B233" s="8">
-        <v>134</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="F233" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="H233" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>351</v>
+      </c>
+      <c r="B233">
+        <v>446</v>
+      </c>
+      <c r="C233" t="s">
+        <v>851</v>
+      </c>
+      <c r="D233" t="s">
+        <v>852</v>
+      </c>
+      <c r="E233" t="s">
+        <v>853</v>
+      </c>
+      <c r="H233" t="s">
         <v>663</v>
       </c>
-      <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
-      <c r="K233" s="8">
-        <v>0</v>
-      </c>
-      <c r="L233" s="8">
-        <v>0</v>
-      </c>
-      <c r="M233" s="8">
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>-1000</v>
+      </c>
+      <c r="M233">
         <v>1000</v>
       </c>
       <c r="N233">
         <v>0</v>
       </c>
-      <c r="O233">
-        <v>4</v>
+      <c r="O233" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="P233" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A234" s="8">
-        <v>375</v>
-      </c>
-      <c r="B234" s="8">
-        <v>473</v>
-      </c>
-      <c r="C234" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>380</v>
+      </c>
+      <c r="B234">
+        <v>478</v>
+      </c>
+      <c r="C234" t="s">
+        <v>858</v>
+      </c>
+      <c r="D234" t="s">
         <v>859</v>
       </c>
-      <c r="D234" s="8" t="s">
+      <c r="E234" t="s">
         <v>860</v>
       </c>
-      <c r="E234" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="F234" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="G234" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="H234" s="8" t="s">
+      <c r="H234" t="s">
         <v>663</v>
       </c>
-      <c r="I234" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="J234" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="K234" s="8">
-        <v>0</v>
-      </c>
-      <c r="L234" s="8">
-        <v>0</v>
-      </c>
-      <c r="M234" s="8">
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>-1000</v>
+      </c>
+      <c r="M234">
         <v>1000</v>
       </c>
       <c r="N234">
         <v>0</v>
       </c>
-      <c r="O234">
-        <v>4</v>
+      <c r="O234" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="P234" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A235" s="8">
-        <v>187</v>
-      </c>
-      <c r="B235" s="8">
-        <v>246</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E235" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="F235" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="G235" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="H235" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>396</v>
+      </c>
+      <c r="B235">
+        <v>498</v>
+      </c>
+      <c r="C235" t="s">
+        <v>867</v>
+      </c>
+      <c r="D235" t="s">
+        <v>868</v>
+      </c>
+      <c r="E235" t="s">
+        <v>869</v>
+      </c>
+      <c r="H235" t="s">
         <v>663</v>
       </c>
-      <c r="I235" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="J235" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="K235" s="8">
-        <v>1</v>
-      </c>
-      <c r="L235" s="8">
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
         <v>-1000</v>
       </c>
-      <c r="M235" s="8">
+      <c r="M235">
         <v>1000</v>
       </c>
       <c r="N235">
@@ -13772,94 +14004,70 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A236" s="8">
-        <v>200</v>
-      </c>
-      <c r="B236" s="8">
-        <v>265</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="E236" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="F236" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="G236" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="H236" s="8" t="s">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>442</v>
+      </c>
+      <c r="B236">
+        <v>574</v>
+      </c>
+      <c r="C236" t="s">
+        <v>918</v>
+      </c>
+      <c r="D236" t="s">
+        <v>919</v>
+      </c>
+      <c r="E236" t="s">
+        <v>920</v>
+      </c>
+      <c r="H236" t="s">
         <v>663</v>
       </c>
-      <c r="I236" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="J236" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="K236" s="8">
-        <v>1</v>
-      </c>
-      <c r="L236" s="8">
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>1000</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="P236" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>492</v>
+      </c>
+      <c r="B237">
+        <v>643</v>
+      </c>
+      <c r="C237" t="s">
+        <v>947</v>
+      </c>
+      <c r="D237" t="s">
+        <v>948</v>
+      </c>
+      <c r="E237" t="s">
+        <v>949</v>
+      </c>
+      <c r="H237" t="s">
+        <v>663</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
         <v>-1000</v>
       </c>
-      <c r="M236" s="8">
-        <v>1000</v>
-      </c>
-      <c r="N236">
-        <v>0</v>
-      </c>
-      <c r="O236">
-        <v>4</v>
-      </c>
-      <c r="P236" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A237" s="8">
-        <v>431</v>
-      </c>
-      <c r="B237" s="8">
-        <v>559</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>902</v>
-      </c>
-      <c r="E237" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="F237" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="G237" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="H237" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="I237" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="J237" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="K237" s="8">
-        <v>1</v>
-      </c>
-      <c r="L237" s="8">
-        <v>-1000</v>
-      </c>
-      <c r="M237" s="8">
+      <c r="M237">
         <v>1000</v>
       </c>
       <c r="N237">
@@ -13872,44 +14080,32 @@
         <v>245</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A238" s="8">
-        <v>477</v>
-      </c>
-      <c r="B238" s="8">
-        <v>579</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="E238" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="F238" s="8" t="s">
-        <v>931</v>
-      </c>
-      <c r="G238" s="8" t="s">
-        <v>931</v>
-      </c>
-      <c r="H238" s="8" t="s">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>509</v>
+      </c>
+      <c r="B238">
+        <v>664</v>
+      </c>
+      <c r="C238" t="s">
+        <v>954</v>
+      </c>
+      <c r="D238" t="s">
+        <v>955</v>
+      </c>
+      <c r="E238" t="s">
+        <v>956</v>
+      </c>
+      <c r="H238" t="s">
         <v>663</v>
       </c>
-      <c r="I238" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="J238" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="K238" s="8">
-        <v>0</v>
-      </c>
-      <c r="L238" s="8">
-        <v>0</v>
-      </c>
-      <c r="M238" s="8">
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>-1000</v>
+      </c>
+      <c r="M238">
         <v>1000</v>
       </c>
       <c r="N238">
@@ -13922,42 +14118,32 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A239" s="8">
-        <v>760</v>
-      </c>
-      <c r="B239" s="8">
-        <v>693</v>
-      </c>
-      <c r="C239" s="8" t="s">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>543</v>
+      </c>
+      <c r="B239">
+        <v>709</v>
+      </c>
+      <c r="C239" t="s">
+        <v>978</v>
+      </c>
+      <c r="D239" t="s">
         <v>979</v>
       </c>
-      <c r="D239" s="8" t="s">
+      <c r="E239" t="s">
         <v>980</v>
       </c>
-      <c r="E239" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="F239" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="G239" s="8" t="s">
-        <v>983</v>
-      </c>
-      <c r="H239" s="8" t="s">
+      <c r="H239" t="s">
         <v>663</v>
       </c>
-      <c r="I239" s="8" t="s">
-        <v>984</v>
-      </c>
-      <c r="J239" s="8"/>
-      <c r="K239" s="8">
-        <v>0</v>
-      </c>
-      <c r="L239" s="8">
-        <v>0</v>
-      </c>
-      <c r="M239" s="8">
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
         <v>1000</v>
       </c>
       <c r="N239">
@@ -13970,44 +14156,32 @@
         <v>245</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A240" s="8">
-        <v>595</v>
-      </c>
-      <c r="B240" s="8">
-        <v>771</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E240" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F240" s="8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G240" s="8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H240" s="8" t="s">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>552</v>
+      </c>
+      <c r="B240">
+        <v>721</v>
+      </c>
+      <c r="C240" t="s">
+        <v>981</v>
+      </c>
+      <c r="D240" t="s">
+        <v>982</v>
+      </c>
+      <c r="E240" t="s">
+        <v>983</v>
+      </c>
+      <c r="H240" t="s">
         <v>663</v>
       </c>
-      <c r="I240" s="8" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J240" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="K240" s="8">
-        <v>1</v>
-      </c>
-      <c r="L240" s="8">
-        <v>-1000</v>
-      </c>
-      <c r="M240" s="8">
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
         <v>1000</v>
       </c>
       <c r="N240">
@@ -14022,35 +14196,23 @@
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>154</v>
+        <v>573</v>
       </c>
       <c r="B241">
-        <v>173</v>
+        <v>746</v>
       </c>
       <c r="C241" t="s">
-        <v>745</v>
-      </c>
-      <c r="D241" s="20" t="s">
-        <v>746</v>
+        <v>984</v>
+      </c>
+      <c r="D241" t="s">
+        <v>985</v>
       </c>
       <c r="E241" t="s">
-        <v>747</v>
-      </c>
-      <c r="F241" t="s">
-        <v>748</v>
-      </c>
-      <c r="G241" t="s">
-        <v>749</v>
+        <v>986</v>
       </c>
       <c r="H241" t="s">
         <v>663</v>
       </c>
-      <c r="I241" t="s">
-        <v>750</v>
-      </c>
-      <c r="J241" t="s">
-        <v>751</v>
-      </c>
       <c r="K241">
         <v>1</v>
       </c>
@@ -14071,41 +14233,31 @@
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A242" s="8">
-        <v>336</v>
-      </c>
-      <c r="B242" s="8">
-        <v>426</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="E242" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="F242" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="G242" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="H242" s="8" t="s">
+      <c r="A242">
+        <v>584</v>
+      </c>
+      <c r="B242">
+        <v>759</v>
+      </c>
+      <c r="C242" t="s">
+        <v>995</v>
+      </c>
+      <c r="D242" t="s">
+        <v>996</v>
+      </c>
+      <c r="E242" t="s">
+        <v>997</v>
+      </c>
+      <c r="H242" t="s">
         <v>663</v>
       </c>
-      <c r="I242" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="J242" s="8"/>
-      <c r="K242" s="8">
-        <v>1</v>
-      </c>
-      <c r="L242" s="8">
-        <v>-1000</v>
-      </c>
-      <c r="M242" s="8">
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
         <v>1000</v>
       </c>
       <c r="N242">
@@ -14118,33 +14270,36 @@
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>334</v>
+        <v>154</v>
       </c>
       <c r="B243">
-        <v>423</v>
+        <v>173</v>
       </c>
       <c r="C243" t="s">
-        <v>833</v>
+        <v>745</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>834</v>
+        <v>1100</v>
       </c>
       <c r="E243" t="s">
-        <v>835</v>
-      </c>
-      <c r="F243" t="s">
-        <v>836</v>
+        <v>746</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>1099</v>
       </c>
       <c r="G243" t="s">
-        <v>836</v>
+        <v>747</v>
       </c>
       <c r="H243" t="s">
         <v>663</v>
       </c>
       <c r="I243" t="s">
-        <v>837</v>
+        <v>748</v>
+      </c>
+      <c r="J243" t="s">
+        <v>749</v>
       </c>
       <c r="K243">
         <v>1</v>
@@ -14167,31 +14322,31 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>625</v>
+        <v>334</v>
       </c>
       <c r="B244">
-        <v>805</v>
+        <v>423</v>
       </c>
       <c r="C244" t="s">
-        <v>1026</v>
+        <v>828</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>1027</v>
+        <v>829</v>
       </c>
       <c r="E244" t="s">
-        <v>1028</v>
+        <v>830</v>
       </c>
       <c r="F244" t="s">
-        <v>836</v>
+        <v>1069</v>
       </c>
       <c r="G244" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="H244" t="s">
         <v>663</v>
       </c>
       <c r="I244" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="K244">
         <v>1</v>
@@ -14213,41 +14368,34 @@
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A245" s="8">
-        <v>532</v>
-      </c>
-      <c r="B245" s="8">
-        <v>692</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="E245" s="8" t="s">
-        <v>978</v>
-      </c>
-      <c r="F245" s="8" t="s">
-        <v>841</v>
-      </c>
-      <c r="G245" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="H245" s="8" t="s">
+      <c r="A245">
+        <v>625</v>
+      </c>
+      <c r="B245">
+        <v>805</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D245" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H245" t="s">
         <v>663</v>
       </c>
-      <c r="I245" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="J245" s="8"/>
-      <c r="K245" s="8">
-        <v>0</v>
-      </c>
-      <c r="L245" s="8">
-        <v>0</v>
-      </c>
-      <c r="M245" s="8">
+      <c r="I245" t="s">
+        <v>832</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>-1000</v>
+      </c>
+      <c r="M245">
         <v>1000</v>
       </c>
       <c r="N245">
@@ -14268,25 +14416,25 @@
         <v>573</v>
       </c>
       <c r="C246" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="E246" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="G246" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="H246" t="s">
         <v>663</v>
       </c>
       <c r="I246" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="K246">
         <v>0</v>
@@ -14315,13 +14463,13 @@
         <v>176</v>
       </c>
       <c r="C247" t="s">
+        <v>750</v>
+      </c>
+      <c r="D247" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="E247" t="s">
         <v>752</v>
-      </c>
-      <c r="D247" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="E247" t="s">
-        <v>754</v>
       </c>
       <c r="H247" t="s">
         <v>663</v>
@@ -14353,13 +14501,13 @@
         <v>184</v>
       </c>
       <c r="C248" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E248" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H248" t="s">
         <v>663</v>
@@ -14382,13 +14530,13 @@
         <v>444</v>
       </c>
       <c r="C249" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E249" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="H249" t="s">
         <v>663</v>
@@ -14411,13 +14559,13 @@
         <v>445</v>
       </c>
       <c r="C250" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E250" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="H250" t="s">
         <v>663</v>
@@ -14440,13 +14588,13 @@
         <v>534</v>
       </c>
       <c r="C251" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="E251" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="H251" t="s">
         <v>663</v>
@@ -14472,13 +14620,13 @@
         <v>572</v>
       </c>
       <c r="C252" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="E252" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H252" t="s">
         <v>663</v>
@@ -14501,13 +14649,13 @@
         <v>801</v>
       </c>
       <c r="C253" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="E253" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="H253" t="s">
         <v>663</v>
@@ -14530,13 +14678,13 @@
         <v>802</v>
       </c>
       <c r="C254" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="E254" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="H254" t="s">
         <v>663</v>
@@ -14552,24 +14700,25 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A156:M254">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A156:P254">
     <sortCondition sortBy="cellColor" ref="D156:D254" dxfId="1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J182" r:id="rId1" display="https://www.genome.jp/entry/7.2.2.8" xr:uid="{D95BD4C3-7740-D94E-8134-9EF0C30B1ECC}"/>
-    <hyperlink ref="J198" r:id="rId2" display="https://www.genome.jp/kegg-bin/show_organism?org=T01468" xr:uid="{B29AF2FA-98ED-1649-AB39-28AD6615823A}"/>
-    <hyperlink ref="J200" r:id="rId3" display="https://www.genome.jp/kegg-bin/show_organism?org=T01468" xr:uid="{C74418D2-E688-4044-A113-E6C1D7AD77EC}"/>
+    <hyperlink ref="J195" r:id="rId1" display="https://www.genome.jp/entry/7.2.2.8" xr:uid="{D95BD4C3-7740-D94E-8134-9EF0C30B1ECC}"/>
+    <hyperlink ref="J211" r:id="rId2" display="https://www.genome.jp/kegg-bin/show_organism?org=T01468" xr:uid="{B29AF2FA-98ED-1649-AB39-28AD6615823A}"/>
+    <hyperlink ref="J213" r:id="rId3" display="https://www.genome.jp/kegg-bin/show_organism?org=T01468" xr:uid="{C74418D2-E688-4044-A113-E6C1D7AD77EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDB5207-8643-9C45-9A5D-6627088CAF18}">
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="D63" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17677,7 +17826,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>303</v>
       </c>
@@ -17727,7 +17876,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>304</v>
       </c>
@@ -17777,7 +17926,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>319</v>
       </c>
@@ -17827,7 +17976,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>495</v>
       </c>
@@ -17877,7 +18026,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>498</v>
       </c>
@@ -17927,7 +18076,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>499</v>
       </c>
@@ -17977,7 +18126,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>501</v>
       </c>
@@ -18027,7 +18176,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>522</v>
       </c>
@@ -18077,7 +18226,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>602</v>
       </c>
@@ -18127,7 +18276,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
@@ -18177,7 +18326,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>131</v>
       </c>
@@ -18226,8 +18375,9 @@
       <c r="P91" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q91"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <v>689</v>
       </c>
@@ -18277,7 +18427,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>130</v>
       </c>
@@ -18327,7 +18477,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>274</v>
       </c>
@@ -18377,7 +18527,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>288</v>
       </c>
@@ -19697,7 +19847,2732 @@
         <v>2</v>
       </c>
     </row>
+    <row r="129" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>284</v>
+      </c>
+      <c r="B129">
+        <v>361</v>
+      </c>
+      <c r="C129" t="s">
+        <v>796</v>
+      </c>
+      <c r="D129" t="s">
+        <v>797</v>
+      </c>
+      <c r="E129" t="s">
+        <v>798</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H129" t="s">
+        <v>663</v>
+      </c>
+      <c r="I129" t="s">
+        <v>799</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1000</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>4</v>
+      </c>
+      <c r="P129" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>432</v>
+      </c>
+      <c r="B130">
+        <v>560</v>
+      </c>
+      <c r="C130" t="s">
+        <v>898</v>
+      </c>
+      <c r="D130" t="s">
+        <v>899</v>
+      </c>
+      <c r="E130" t="s">
+        <v>900</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H130" t="s">
+        <v>663</v>
+      </c>
+      <c r="I130" t="s">
+        <v>902</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1000</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>38</v>
+      </c>
+      <c r="P130" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q130"/>
+    </row>
+    <row r="131" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>461</v>
+      </c>
+      <c r="B131">
+        <v>596</v>
+      </c>
+      <c r="C131" t="s">
+        <v>943</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E131" t="s">
+        <v>944</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H131" t="s">
+        <v>663</v>
+      </c>
+      <c r="I131" t="s">
+        <v>946</v>
+      </c>
+      <c r="J131" t="s">
+        <v>763</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>-1000</v>
+      </c>
+      <c r="M131">
+        <v>1000</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>4</v>
+      </c>
+      <c r="P131" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>127</v>
+      </c>
+      <c r="B132">
+        <v>178</v>
+      </c>
+      <c r="C132" t="s">
+        <v>758</v>
+      </c>
+      <c r="D132" t="s">
+        <v>759</v>
+      </c>
+      <c r="E132" t="s">
+        <v>760</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H132" t="s">
+        <v>663</v>
+      </c>
+      <c r="I132" t="s">
+        <v>762</v>
+      </c>
+      <c r="J132" t="s">
+        <v>763</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>-1000</v>
+      </c>
+      <c r="M132">
+        <v>1000</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>4</v>
+      </c>
+      <c r="P132" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>430</v>
+      </c>
+      <c r="B133">
+        <v>554</v>
+      </c>
+      <c r="C133" t="s">
+        <v>892</v>
+      </c>
+      <c r="D133" t="s">
+        <v>893</v>
+      </c>
+      <c r="E133" t="s">
+        <v>894</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H133" t="s">
+        <v>663</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J133" t="s">
+        <v>763</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>-1000</v>
+      </c>
+      <c r="M133">
+        <v>1000</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>4</v>
+      </c>
+      <c r="P133" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>785</v>
+      </c>
+      <c r="B134">
+        <v>813</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H134" t="s">
+        <v>663</v>
+      </c>
+      <c r="I134" t="s">
+        <v>734</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>-1000</v>
+      </c>
+      <c r="M134">
+        <v>1000</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>156</v>
+      </c>
+      <c r="B135">
+        <v>197</v>
+      </c>
+      <c r="C135" t="s">
+        <v>767</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H135" t="s">
+        <v>663</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>1000</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>157</v>
+      </c>
+      <c r="B136">
+        <v>198</v>
+      </c>
+      <c r="C136" t="s">
+        <v>771</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E136" t="s">
+        <v>768</v>
+      </c>
+      <c r="F136" s="21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H136" t="s">
+        <v>663</v>
+      </c>
+      <c r="I136" t="s">
+        <v>773</v>
+      </c>
+      <c r="J136" s="22" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>1000</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>286</v>
+      </c>
+      <c r="B137">
+        <v>363</v>
+      </c>
+      <c r="C137" t="s">
+        <v>805</v>
+      </c>
+      <c r="D137" t="s">
+        <v>806</v>
+      </c>
+      <c r="E137" t="s">
+        <v>807</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H137" t="s">
+        <v>663</v>
+      </c>
+      <c r="I137" t="s">
+        <v>809</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1000</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>4</v>
+      </c>
+      <c r="P138" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>285</v>
+      </c>
+      <c r="B139">
+        <v>362</v>
+      </c>
+      <c r="C139" t="s">
+        <v>800</v>
+      </c>
+      <c r="D139" t="s">
+        <v>801</v>
+      </c>
+      <c r="E139" t="s">
+        <v>802</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H139" t="s">
+        <v>663</v>
+      </c>
+      <c r="I139" t="s">
+        <v>804</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1000</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>4</v>
+      </c>
+      <c r="P139" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>460</v>
+      </c>
+      <c r="B140">
+        <v>594</v>
+      </c>
+      <c r="C140" t="s">
+        <v>938</v>
+      </c>
+      <c r="D140" t="s">
+        <v>939</v>
+      </c>
+      <c r="E140" t="s">
+        <v>940</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H140" t="s">
+        <v>663</v>
+      </c>
+      <c r="I140" t="s">
+        <v>942</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1000</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>104</v>
+      </c>
+      <c r="B141">
+        <v>147</v>
+      </c>
+      <c r="C141" t="s">
+        <v>723</v>
+      </c>
+      <c r="D141" t="s">
+        <v>724</v>
+      </c>
+      <c r="E141" t="s">
+        <v>725</v>
+      </c>
+      <c r="F141" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G141" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H141" t="s">
+        <v>663</v>
+      </c>
+      <c r="I141" t="s">
+        <v>727</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>1000</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>2</v>
+      </c>
+      <c r="P141" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>105</v>
+      </c>
+      <c r="B142">
+        <v>148</v>
+      </c>
+      <c r="C142" t="s">
+        <v>728</v>
+      </c>
+      <c r="D142" t="s">
+        <v>729</v>
+      </c>
+      <c r="E142" t="s">
+        <v>730</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G142" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H142" t="s">
+        <v>663</v>
+      </c>
+      <c r="I142" t="s">
+        <v>727</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>1000</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>4</v>
+      </c>
+      <c r="P142" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E143" s="23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>4</v>
+      </c>
+      <c r="P143" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="D144" s="24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>433</v>
+      </c>
+      <c r="B145">
+        <v>561</v>
+      </c>
+      <c r="C145" t="s">
+        <v>903</v>
+      </c>
+      <c r="D145" t="s">
+        <v>904</v>
+      </c>
+      <c r="E145" t="s">
+        <v>905</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H145" t="s">
+        <v>663</v>
+      </c>
+      <c r="I145" t="s">
+        <v>908</v>
+      </c>
+      <c r="J145" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>1000</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>458</v>
+      </c>
+      <c r="B146">
+        <v>593</v>
+      </c>
+      <c r="C146" t="s">
+        <v>933</v>
+      </c>
+      <c r="D146" t="s">
+        <v>934</v>
+      </c>
+      <c r="E146" t="s">
+        <v>935</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H146" t="s">
+        <v>663</v>
+      </c>
+      <c r="I146" t="s">
+        <v>937</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>-1000</v>
+      </c>
+      <c r="M146">
+        <v>1000</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>4</v>
+      </c>
+      <c r="P146" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>505</v>
+      </c>
+      <c r="B147">
+        <v>659</v>
+      </c>
+      <c r="C147" t="s">
+        <v>950</v>
+      </c>
+      <c r="D147" t="s">
+        <v>951</v>
+      </c>
+      <c r="E147" t="s">
+        <v>952</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H147" t="s">
+        <v>663</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J147" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1000</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>5</v>
+      </c>
+      <c r="P147" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>94</v>
+      </c>
+      <c r="B148">
+        <v>137</v>
+      </c>
+      <c r="C148" t="s">
+        <v>703</v>
+      </c>
+      <c r="D148" t="s">
+        <v>704</v>
+      </c>
+      <c r="E148" t="s">
+        <v>705</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H148" t="s">
+        <v>663</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1000</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>2</v>
+      </c>
+      <c r="P148" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>4</v>
+      </c>
+      <c r="P149" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>429</v>
+      </c>
+      <c r="B150">
+        <v>552</v>
+      </c>
+      <c r="C150" t="s">
+        <v>888</v>
+      </c>
+      <c r="D150" t="s">
+        <v>889</v>
+      </c>
+      <c r="E150" t="s">
+        <v>890</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H150" t="s">
+        <v>663</v>
+      </c>
+      <c r="I150" t="s">
+        <v>891</v>
+      </c>
+      <c r="J150" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1000</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>4</v>
+      </c>
+      <c r="P150" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="C151" s="23" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H151" t="s">
+        <v>663</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J151" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>4</v>
+      </c>
+      <c r="P151" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="D152" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H152" t="s">
+        <v>663</v>
+      </c>
+      <c r="J152" s="22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>4</v>
+      </c>
+      <c r="P152" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>155</v>
+      </c>
+      <c r="B153">
+        <v>177</v>
+      </c>
+      <c r="C153" t="s">
+        <v>753</v>
+      </c>
+      <c r="D153" t="s">
+        <v>754</v>
+      </c>
+      <c r="E153" t="s">
+        <v>755</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H153" t="s">
+        <v>663</v>
+      </c>
+      <c r="I153" t="s">
+        <v>757</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1000</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>4</v>
+      </c>
+      <c r="P153" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E154" t="s">
+        <v>841</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I154" s="25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J154" s="22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>4</v>
+      </c>
+      <c r="P154" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>773</v>
+      </c>
+      <c r="B155">
+        <v>815</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H155" t="s">
+        <v>663</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>1000</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>4</v>
+      </c>
+      <c r="P155" t="s">
+        <v>245</v>
+      </c>
+      <c r="R155" s="8"/>
+    </row>
+    <row r="156" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>633</v>
+      </c>
+      <c r="B156">
+        <v>814</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H156" t="s">
+        <v>663</v>
+      </c>
+      <c r="I156" t="s">
+        <v>902</v>
+      </c>
+      <c r="J156" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>1000</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>4</v>
+      </c>
+      <c r="P156" t="s">
+        <v>245</v>
+      </c>
+      <c r="R156" s="8"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>702</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>660</v>
+      </c>
+      <c r="D157" t="s">
+        <v>661</v>
+      </c>
+      <c r="E157" t="s">
+        <v>662</v>
+      </c>
+      <c r="H157" t="s">
+        <v>663</v>
+      </c>
+      <c r="J157" t="s">
+        <v>391</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>-1000</v>
+      </c>
+      <c r="M157">
+        <v>1000</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>4</v>
+      </c>
+      <c r="P157" t="s">
+        <v>245</v>
+      </c>
+      <c r="R157" s="8"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>666</v>
+      </c>
+      <c r="D158" t="s">
+        <v>667</v>
+      </c>
+      <c r="E158" t="s">
+        <v>668</v>
+      </c>
+      <c r="H158" t="s">
+        <v>663</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>-1000</v>
+      </c>
+      <c r="M158">
+        <v>1000</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>4</v>
+      </c>
+      <c r="P158" t="s">
+        <v>245</v>
+      </c>
+      <c r="R158" s="8"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>712</v>
+      </c>
+      <c r="B159">
+        <v>35</v>
+      </c>
+      <c r="C159" t="s">
+        <v>669</v>
+      </c>
+      <c r="D159" t="s">
+        <v>670</v>
+      </c>
+      <c r="E159" t="s">
+        <v>671</v>
+      </c>
+      <c r="H159" t="s">
+        <v>663</v>
+      </c>
+      <c r="J159" t="s">
+        <v>391</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>-1000</v>
+      </c>
+      <c r="M159">
+        <v>1000</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>4</v>
+      </c>
+      <c r="P159" t="s">
+        <v>245</v>
+      </c>
+      <c r="R159" s="8"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>17</v>
+      </c>
+      <c r="B160">
+        <v>36</v>
+      </c>
+      <c r="C160" t="s">
+        <v>674</v>
+      </c>
+      <c r="D160" t="s">
+        <v>675</v>
+      </c>
+      <c r="E160" t="s">
+        <v>676</v>
+      </c>
+      <c r="H160" t="s">
+        <v>663</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>-1000</v>
+      </c>
+      <c r="M160">
+        <v>1000</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>33</v>
+      </c>
+      <c r="P160" t="s">
+        <v>917</v>
+      </c>
+      <c r="R160" s="8"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>54</v>
+      </c>
+      <c r="B161">
+        <v>79</v>
+      </c>
+      <c r="C161" t="s">
+        <v>677</v>
+      </c>
+      <c r="D161" t="s">
+        <v>678</v>
+      </c>
+      <c r="E161" t="s">
+        <v>679</v>
+      </c>
+      <c r="H161" t="s">
+        <v>663</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>-1000</v>
+      </c>
+      <c r="M161">
+        <v>1000</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>4</v>
+      </c>
+      <c r="P161" t="s">
+        <v>245</v>
+      </c>
+      <c r="R161" s="8"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>703</v>
+      </c>
+      <c r="B162">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>735</v>
+      </c>
+      <c r="D162" t="s">
+        <v>736</v>
+      </c>
+      <c r="E162" t="s">
+        <v>737</v>
+      </c>
+      <c r="H162" t="s">
+        <v>663</v>
+      </c>
+      <c r="J162" t="s">
+        <v>391</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>-1000</v>
+      </c>
+      <c r="M162">
+        <v>1000</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>5</v>
+      </c>
+      <c r="P162" t="s">
+        <v>308</v>
+      </c>
+      <c r="R162" s="8"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>120</v>
+      </c>
+      <c r="B163">
+        <v>167</v>
+      </c>
+      <c r="C163" t="s">
+        <v>739</v>
+      </c>
+      <c r="D163" t="s">
+        <v>740</v>
+      </c>
+      <c r="E163" t="s">
+        <v>741</v>
+      </c>
+      <c r="H163" t="s">
+        <v>663</v>
+      </c>
+      <c r="J163" t="s">
+        <v>391</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>-1000</v>
+      </c>
+      <c r="M163">
+        <v>1000</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>4</v>
+      </c>
+      <c r="P163" t="s">
+        <v>245</v>
+      </c>
+      <c r="R163" s="8"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>121</v>
+      </c>
+      <c r="B164">
+        <v>168</v>
+      </c>
+      <c r="C164" t="s">
+        <v>742</v>
+      </c>
+      <c r="D164" t="s">
+        <v>743</v>
+      </c>
+      <c r="E164" t="s">
+        <v>744</v>
+      </c>
+      <c r="H164" t="s">
+        <v>663</v>
+      </c>
+      <c r="J164" t="s">
+        <v>391</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>-1000</v>
+      </c>
+      <c r="M164">
+        <v>1000</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="P164" t="s">
+        <v>665</v>
+      </c>
+      <c r="R164" s="8"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>151</v>
+      </c>
+      <c r="B165">
+        <v>204</v>
+      </c>
+      <c r="C165" t="s">
+        <v>774</v>
+      </c>
+      <c r="D165" t="s">
+        <v>775</v>
+      </c>
+      <c r="E165" t="s">
+        <v>776</v>
+      </c>
+      <c r="H165" t="s">
+        <v>663</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>-1000</v>
+      </c>
+      <c r="M165">
+        <v>1000</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>4</v>
+      </c>
+      <c r="P165" t="s">
+        <v>245</v>
+      </c>
+      <c r="R165" s="8"/>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>812</v>
+      </c>
+      <c r="B166">
+        <v>250</v>
+      </c>
+      <c r="C166" t="s">
+        <v>783</v>
+      </c>
+      <c r="D166" t="s">
+        <v>784</v>
+      </c>
+      <c r="E166" t="s">
+        <v>785</v>
+      </c>
+      <c r="H166" t="s">
+        <v>663</v>
+      </c>
+      <c r="J166" t="s">
+        <v>391</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>-1000</v>
+      </c>
+      <c r="M166">
+        <v>1000</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="P166" t="s">
+        <v>673</v>
+      </c>
+      <c r="R166" s="8"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>705</v>
+      </c>
+      <c r="B167">
+        <v>266</v>
+      </c>
+      <c r="C167" t="s">
+        <v>790</v>
+      </c>
+      <c r="D167" t="s">
+        <v>791</v>
+      </c>
+      <c r="E167" t="s">
+        <v>792</v>
+      </c>
+      <c r="H167" t="s">
+        <v>663</v>
+      </c>
+      <c r="J167" t="s">
+        <v>391</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>-1000</v>
+      </c>
+      <c r="M167">
+        <v>1000</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>4</v>
+      </c>
+      <c r="P167" t="s">
+        <v>245</v>
+      </c>
+      <c r="R167" s="8"/>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>704</v>
+      </c>
+      <c r="B168">
+        <v>267</v>
+      </c>
+      <c r="C168" t="s">
+        <v>793</v>
+      </c>
+      <c r="D168" t="s">
+        <v>794</v>
+      </c>
+      <c r="E168" t="s">
+        <v>795</v>
+      </c>
+      <c r="H168" t="s">
+        <v>663</v>
+      </c>
+      <c r="J168" t="s">
+        <v>391</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>-1000</v>
+      </c>
+      <c r="M168">
+        <v>1000</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>4</v>
+      </c>
+      <c r="P168" t="s">
+        <v>245</v>
+      </c>
+      <c r="R168" s="8"/>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>291</v>
+      </c>
+      <c r="B169">
+        <v>371</v>
+      </c>
+      <c r="C169" t="s">
+        <v>810</v>
+      </c>
+      <c r="D169" t="s">
+        <v>811</v>
+      </c>
+      <c r="E169" t="s">
+        <v>812</v>
+      </c>
+      <c r="H169" t="s">
+        <v>663</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>-1000</v>
+      </c>
+      <c r="M169">
+        <v>1000</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="P169" t="s">
+        <v>738</v>
+      </c>
+      <c r="R169" s="8"/>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>793</v>
+      </c>
+      <c r="B170">
+        <v>372</v>
+      </c>
+      <c r="C170" t="s">
+        <v>813</v>
+      </c>
+      <c r="D170" t="s">
+        <v>814</v>
+      </c>
+      <c r="E170" t="s">
+        <v>815</v>
+      </c>
+      <c r="H170" t="s">
+        <v>663</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>-1000</v>
+      </c>
+      <c r="M170">
+        <v>1000</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>4</v>
+      </c>
+      <c r="P170" t="s">
+        <v>245</v>
+      </c>
+      <c r="R170" s="8"/>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>306</v>
+      </c>
+      <c r="B171">
+        <v>389</v>
+      </c>
+      <c r="C171" t="s">
+        <v>818</v>
+      </c>
+      <c r="D171" t="s">
+        <v>819</v>
+      </c>
+      <c r="E171" t="s">
+        <v>820</v>
+      </c>
+      <c r="H171" t="s">
+        <v>663</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>-1000</v>
+      </c>
+      <c r="M171">
+        <v>1000</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>4</v>
+      </c>
+      <c r="P171" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>321</v>
+      </c>
+      <c r="B172">
+        <v>406</v>
+      </c>
+      <c r="C172" t="s">
+        <v>821</v>
+      </c>
+      <c r="D172" t="s">
+        <v>822</v>
+      </c>
+      <c r="E172" t="s">
+        <v>823</v>
+      </c>
+      <c r="H172" t="s">
+        <v>663</v>
+      </c>
+      <c r="I172" t="s">
+        <v>824</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>-1000</v>
+      </c>
+      <c r="M172">
+        <v>1000</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>4</v>
+      </c>
+      <c r="P172" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>333</v>
+      </c>
+      <c r="B173">
+        <v>417</v>
+      </c>
+      <c r="C173" t="s">
+        <v>825</v>
+      </c>
+      <c r="D173" t="s">
+        <v>826</v>
+      </c>
+      <c r="E173" t="s">
+        <v>827</v>
+      </c>
+      <c r="H173" t="s">
+        <v>663</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>-1000</v>
+      </c>
+      <c r="M173">
+        <v>1000</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>23</v>
+      </c>
+      <c r="P173" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>351</v>
+      </c>
+      <c r="B174">
+        <v>446</v>
+      </c>
+      <c r="C174" t="s">
+        <v>851</v>
+      </c>
+      <c r="D174" t="s">
+        <v>852</v>
+      </c>
+      <c r="E174" t="s">
+        <v>853</v>
+      </c>
+      <c r="H174" t="s">
+        <v>663</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>-1000</v>
+      </c>
+      <c r="M174">
+        <v>1000</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="P174" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>380</v>
+      </c>
+      <c r="B175">
+        <v>478</v>
+      </c>
+      <c r="C175" t="s">
+        <v>858</v>
+      </c>
+      <c r="D175" t="s">
+        <v>859</v>
+      </c>
+      <c r="E175" t="s">
+        <v>860</v>
+      </c>
+      <c r="H175" t="s">
+        <v>663</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>-1000</v>
+      </c>
+      <c r="M175">
+        <v>1000</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="P175" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>396</v>
+      </c>
+      <c r="B176">
+        <v>498</v>
+      </c>
+      <c r="C176" t="s">
+        <v>867</v>
+      </c>
+      <c r="D176" t="s">
+        <v>868</v>
+      </c>
+      <c r="E176" t="s">
+        <v>869</v>
+      </c>
+      <c r="H176" t="s">
+        <v>663</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>-1000</v>
+      </c>
+      <c r="M176">
+        <v>1000</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>4</v>
+      </c>
+      <c r="P176" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>442</v>
+      </c>
+      <c r="B177">
+        <v>574</v>
+      </c>
+      <c r="C177" t="s">
+        <v>918</v>
+      </c>
+      <c r="D177" t="s">
+        <v>919</v>
+      </c>
+      <c r="E177" t="s">
+        <v>920</v>
+      </c>
+      <c r="H177" t="s">
+        <v>663</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>1000</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="P177" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>492</v>
+      </c>
+      <c r="B178">
+        <v>643</v>
+      </c>
+      <c r="C178" t="s">
+        <v>947</v>
+      </c>
+      <c r="D178" t="s">
+        <v>948</v>
+      </c>
+      <c r="E178" t="s">
+        <v>949</v>
+      </c>
+      <c r="H178" t="s">
+        <v>663</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>-1000</v>
+      </c>
+      <c r="M178">
+        <v>1000</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>4</v>
+      </c>
+      <c r="P178" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>509</v>
+      </c>
+      <c r="B179">
+        <v>664</v>
+      </c>
+      <c r="C179" t="s">
+        <v>954</v>
+      </c>
+      <c r="D179" t="s">
+        <v>955</v>
+      </c>
+      <c r="E179" t="s">
+        <v>956</v>
+      </c>
+      <c r="H179" t="s">
+        <v>663</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>-1000</v>
+      </c>
+      <c r="M179">
+        <v>1000</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>4</v>
+      </c>
+      <c r="P179" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>543</v>
+      </c>
+      <c r="B180">
+        <v>709</v>
+      </c>
+      <c r="C180" t="s">
+        <v>978</v>
+      </c>
+      <c r="D180" t="s">
+        <v>979</v>
+      </c>
+      <c r="E180" t="s">
+        <v>980</v>
+      </c>
+      <c r="H180" t="s">
+        <v>663</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1000</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>4</v>
+      </c>
+      <c r="P180" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>552</v>
+      </c>
+      <c r="B181">
+        <v>721</v>
+      </c>
+      <c r="C181" t="s">
+        <v>981</v>
+      </c>
+      <c r="D181" t="s">
+        <v>982</v>
+      </c>
+      <c r="E181" t="s">
+        <v>983</v>
+      </c>
+      <c r="H181" t="s">
+        <v>663</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>1000</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>4</v>
+      </c>
+      <c r="P181" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>573</v>
+      </c>
+      <c r="B182">
+        <v>746</v>
+      </c>
+      <c r="C182" t="s">
+        <v>984</v>
+      </c>
+      <c r="D182" t="s">
+        <v>985</v>
+      </c>
+      <c r="E182" t="s">
+        <v>986</v>
+      </c>
+      <c r="H182" t="s">
+        <v>663</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>-1000</v>
+      </c>
+      <c r="M182">
+        <v>1000</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>4</v>
+      </c>
+      <c r="P182" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>584</v>
+      </c>
+      <c r="B183">
+        <v>759</v>
+      </c>
+      <c r="C183" t="s">
+        <v>995</v>
+      </c>
+      <c r="D183" t="s">
+        <v>996</v>
+      </c>
+      <c r="E183" t="s">
+        <v>997</v>
+      </c>
+      <c r="H183" t="s">
+        <v>663</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1000</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>4</v>
+      </c>
+      <c r="P183" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>154</v>
+      </c>
+      <c r="B184">
+        <v>173</v>
+      </c>
+      <c r="C184" t="s">
+        <v>745</v>
+      </c>
+      <c r="D184" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E184" t="s">
+        <v>746</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H184" t="s">
+        <v>663</v>
+      </c>
+      <c r="I184" t="s">
+        <v>748</v>
+      </c>
+      <c r="J184" t="s">
+        <v>749</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>-1000</v>
+      </c>
+      <c r="M184">
+        <v>1000</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>4</v>
+      </c>
+      <c r="P184" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>334</v>
+      </c>
+      <c r="B185">
+        <v>423</v>
+      </c>
+      <c r="C185" t="s">
+        <v>828</v>
+      </c>
+      <c r="D185" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="E185" t="s">
+        <v>830</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H185" t="s">
+        <v>663</v>
+      </c>
+      <c r="I185" t="s">
+        <v>832</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>-1000</v>
+      </c>
+      <c r="M185">
+        <v>1000</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>4</v>
+      </c>
+      <c r="P185" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>625</v>
+      </c>
+      <c r="B186">
+        <v>805</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D186" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H186" t="s">
+        <v>663</v>
+      </c>
+      <c r="I186" t="s">
+        <v>832</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>-1000</v>
+      </c>
+      <c r="M186">
+        <v>1000</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>4</v>
+      </c>
+      <c r="P186" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>742</v>
+      </c>
+      <c r="B187">
+        <v>573</v>
+      </c>
+      <c r="C187" t="s">
+        <v>912</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="E187" t="s">
+        <v>914</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H187" t="s">
+        <v>663</v>
+      </c>
+      <c r="I187" t="s">
+        <v>916</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1000</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>4</v>
+      </c>
+      <c r="P187" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>126</v>
+      </c>
+      <c r="B188">
+        <v>176</v>
+      </c>
+      <c r="C188" t="s">
+        <v>750</v>
+      </c>
+      <c r="D188" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="E188" t="s">
+        <v>752</v>
+      </c>
+      <c r="H188" t="s">
+        <v>663</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>-1000</v>
+      </c>
+      <c r="M188">
+        <v>1000</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>4</v>
+      </c>
+      <c r="P188" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>133</v>
+      </c>
+      <c r="B189">
+        <v>184</v>
+      </c>
+      <c r="C189" t="s">
+        <v>764</v>
+      </c>
+      <c r="D189" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="E189" t="s">
+        <v>766</v>
+      </c>
+      <c r="H189" t="s">
+        <v>663</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>-1000</v>
+      </c>
+      <c r="M189">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>349</v>
+      </c>
+      <c r="B190">
+        <v>444</v>
+      </c>
+      <c r="C190" t="s">
+        <v>845</v>
+      </c>
+      <c r="D190" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="E190" t="s">
+        <v>847</v>
+      </c>
+      <c r="H190" t="s">
+        <v>663</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>-1000</v>
+      </c>
+      <c r="M190">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>350</v>
+      </c>
+      <c r="B191">
+        <v>445</v>
+      </c>
+      <c r="C191" t="s">
+        <v>848</v>
+      </c>
+      <c r="D191" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="E191" t="s">
+        <v>850</v>
+      </c>
+      <c r="H191" t="s">
+        <v>663</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>-1000</v>
+      </c>
+      <c r="M191">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>423</v>
+      </c>
+      <c r="B192">
+        <v>534</v>
+      </c>
+      <c r="C192" t="s">
+        <v>885</v>
+      </c>
+      <c r="D192" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="E192" t="s">
+        <v>887</v>
+      </c>
+      <c r="H192" t="s">
+        <v>663</v>
+      </c>
+      <c r="J192" t="s">
+        <v>391</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>-1000</v>
+      </c>
+      <c r="M192">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>441</v>
+      </c>
+      <c r="B193">
+        <v>572</v>
+      </c>
+      <c r="C193" t="s">
+        <v>909</v>
+      </c>
+      <c r="D193" s="20" t="s">
+        <v>910</v>
+      </c>
+      <c r="E193" t="s">
+        <v>911</v>
+      </c>
+      <c r="H193" t="s">
+        <v>663</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>-1000</v>
+      </c>
+      <c r="M193">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>621</v>
+      </c>
+      <c r="B194">
+        <v>801</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D194" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H194" t="s">
+        <v>663</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>-1000</v>
+      </c>
+      <c r="M194">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>622</v>
+      </c>
+      <c r="B195">
+        <v>802</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D195" s="20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H195" t="s">
+        <v>663</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>-1000</v>
+      </c>
+      <c r="M195">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J136" r:id="rId1" display="https://www.genome.jp/entry/7.2.2.8" xr:uid="{E24544B7-C517-5A43-834B-CEA08DE905B9}"/>
+    <hyperlink ref="J152" r:id="rId2" display="https://www.genome.jp/kegg-bin/show_organism?org=T01468" xr:uid="{7B671A79-A6ED-3D4F-A97B-796909720F5A}"/>
+    <hyperlink ref="J154" r:id="rId3" display="https://www.genome.jp/kegg-bin/show_organism?org=T01468" xr:uid="{87FD174C-3B9F-EC40-B773-1B9C944B0C38}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
